--- a/team/efforts/Recopilacion_Esfuerzos_Carlos.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Carlos.xlsx
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="40">
   <si>
     <t>GP</t>
   </si>
@@ -423,13 +423,19 @@
     <t>Dirección del proyecto</t>
   </si>
   <si>
-    <t>Diseño de la BD</t>
-  </si>
-  <si>
     <t>Familiarización con la herramienta GitHub</t>
   </si>
   <si>
     <t>Entrega de la propuesta del proyecto</t>
+  </si>
+  <si>
+    <t>Implementación base</t>
+  </si>
+  <si>
+    <t>Práctica de auditoria</t>
+  </si>
+  <si>
+    <t>Diseño del esquema E/R de la BD</t>
   </si>
 </sst>
 </file>
@@ -1323,40 +1329,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFCCFFFF"/>
           <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
         </patternFill>
       </fill>
       <border>
@@ -1803,10 +1781,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.75</c:v>
+                  <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1896,11 +1874,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77606272"/>
-        <c:axId val="77617024"/>
+        <c:axId val="82132352"/>
+        <c:axId val="82151296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77606272"/>
+        <c:axId val="82132352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1936,13 +1914,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77617024"/>
+        <c:crossAx val="82151296"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77617024"/>
+        <c:axId val="82151296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1993,7 +1971,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77606272"/>
+        <c:crossAx val="82132352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2014,7 +1992,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5000,12 +4978,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7833,12 +7811,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10617,12 +10595,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13450,12 +13428,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13677,7 +13655,7 @@
       </c>
       <c r="G6" s="114">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>9.25</v>
+        <v>13.25</v>
       </c>
       <c r="H6" s="116">
         <f>Ene!G36</f>
@@ -13689,11 +13667,11 @@
       </c>
       <c r="J6" s="116">
         <f>Mar!G35</f>
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="K6" s="116">
         <f>Abr!G36</f>
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="L6" s="116">
         <f>May!G36</f>
@@ -14234,12 +14212,12 @@
     <row r="39" ht="15.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16733,12 +16711,12 @@
     <mergeCell ref="AO1:AP1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G32">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G32">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16752,7 +16730,7 @@
   <dimension ref="A1:BC42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G4"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -17019,7 +16997,7 @@
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AS3" s="22">
         <v>1</v>
@@ -17198,7 +17176,7 @@
       </c>
       <c r="G6" s="15">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="23"/>
@@ -17212,7 +17190,7 @@
       <c r="Q6" s="23"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="T6" s="23"/>
       <c r="U6" s="19"/>
@@ -17266,7 +17244,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G7" s="15">
         <f t="shared" si="0"/>
@@ -17338,7 +17316,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="15">
         <f t="shared" si="0"/>
@@ -18966,7 +18944,7 @@
       </c>
       <c r="G35" s="36">
         <f t="shared" si="0"/>
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="H35" s="37">
         <f t="shared" ref="H35:AL35" si="1">SUM(H3:H34)</f>
@@ -19014,7 +18992,7 @@
       </c>
       <c r="S35" s="72">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T35" s="72">
         <f t="shared" si="1"/>
@@ -19527,12 +19505,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G34">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G34">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19546,7 +19524,7 @@
   <dimension ref="A1:BB43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -19822,14 +19800,24 @@
     </row>
     <row r="4" spans="1:54" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="21">
+        <v>85</v>
+      </c>
+      <c r="C4" s="23">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23">
+        <v>54</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>37</v>
+      </c>
       <c r="G4" s="15">
-        <f t="shared" ref="G3:G36" si="1">SUM(H4:AK4)</f>
-        <v>0</v>
+        <f t="shared" ref="G4:G36" si="1">SUM(H4:AK4)</f>
+        <v>0.5</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
@@ -19841,7 +19829,9 @@
       <c r="O4" s="23"/>
       <c r="P4" s="23"/>
       <c r="Q4" s="23"/>
-      <c r="R4" s="19"/>
+      <c r="R4" s="19">
+        <v>0.5</v>
+      </c>
       <c r="S4" s="19"/>
       <c r="T4" s="23"/>
       <c r="U4" s="23"/>
@@ -19881,14 +19871,24 @@
     </row>
     <row r="5" spans="1:54" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="21">
+        <v>85</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2</v>
+      </c>
+      <c r="D5" s="23">
+        <v>54</v>
+      </c>
+      <c r="E5" s="24">
+        <v>0</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>37</v>
+      </c>
       <c r="G5" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -19901,7 +19901,9 @@
       <c r="P5" s="23"/>
       <c r="Q5" s="23"/>
       <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
+      <c r="S5" s="19">
+        <v>1</v>
+      </c>
       <c r="T5" s="23"/>
       <c r="U5" s="23"/>
       <c r="V5" s="23"/>
@@ -19940,14 +19942,24 @@
     </row>
     <row r="6" spans="1:54" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="21">
+        <v>85</v>
+      </c>
+      <c r="C6" s="23">
+        <v>2</v>
+      </c>
+      <c r="D6" s="23">
+        <v>44</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>38</v>
+      </c>
       <c r="G6" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
@@ -19963,7 +19975,9 @@
       <c r="S6" s="19"/>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
+      <c r="V6" s="23">
+        <v>2</v>
+      </c>
       <c r="W6" s="23"/>
       <c r="X6" s="23"/>
       <c r="Y6" s="19"/>
@@ -21719,7 +21733,7 @@
       </c>
       <c r="G36" s="36">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" ref="H36:AK36" si="2">SUM(H3:H35)</f>
@@ -21763,11 +21777,11 @@
       </c>
       <c r="R36" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S36" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="72">
         <f t="shared" si="2"/>
@@ -21779,7 +21793,7 @@
       </c>
       <c r="V36" s="72">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="72">
         <f t="shared" si="2"/>
@@ -22269,22 +22283,22 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25055,12 +25069,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27783,12 +27797,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30560,12 +30574,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33336,12 +33350,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36064,12 +36078,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/team/efforts/Recopilacion_Esfuerzos_Carlos.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Carlos.xlsx
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="41">
   <si>
     <t>GP</t>
   </si>
@@ -423,13 +423,22 @@
     <t>Dirección del proyecto</t>
   </si>
   <si>
-    <t>Diseño de la BD</t>
-  </si>
-  <si>
     <t>Familiarización con la herramienta GitHub</t>
   </si>
   <si>
     <t>Entrega de la propuesta del proyecto</t>
+  </si>
+  <si>
+    <t>Implementación base</t>
+  </si>
+  <si>
+    <t>Práctica de auditoria</t>
+  </si>
+  <si>
+    <t>Diseño del esquema E/R de la BD</t>
+  </si>
+  <si>
+    <t>Reunión para el reparto de tareas</t>
   </si>
 </sst>
 </file>
@@ -1323,40 +1332,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFCCFFFF"/>
           <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
         </patternFill>
       </fill>
       <border>
@@ -1803,10 +1784,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.75</c:v>
+                  <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1896,11 +1877,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77606272"/>
-        <c:axId val="77617024"/>
+        <c:axId val="90918272"/>
+        <c:axId val="90937216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77606272"/>
+        <c:axId val="90918272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1936,13 +1917,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77617024"/>
+        <c:crossAx val="90937216"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77617024"/>
+        <c:axId val="90937216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1993,7 +1974,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77606272"/>
+        <c:crossAx val="90918272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2014,7 +1995,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5000,12 +4981,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7833,12 +7814,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10617,12 +10598,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13450,12 +13431,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13677,7 +13658,7 @@
       </c>
       <c r="G6" s="114">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>9.25</v>
+        <v>14.25</v>
       </c>
       <c r="H6" s="116">
         <f>Ene!G36</f>
@@ -13689,11 +13670,11 @@
       </c>
       <c r="J6" s="116">
         <f>Mar!G35</f>
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="K6" s="116">
         <f>Abr!G36</f>
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L6" s="116">
         <f>May!G36</f>
@@ -14234,12 +14215,12 @@
     <row r="39" ht="15.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16733,12 +16714,12 @@
     <mergeCell ref="AO1:AP1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G32">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G32">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16752,7 +16733,7 @@
   <dimension ref="A1:BC42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G4"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -17019,7 +17000,7 @@
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AS3" s="22">
         <v>1</v>
@@ -17198,7 +17179,7 @@
       </c>
       <c r="G6" s="15">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="23"/>
@@ -17212,7 +17193,7 @@
       <c r="Q6" s="23"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="T6" s="23"/>
       <c r="U6" s="19"/>
@@ -17266,7 +17247,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G7" s="15">
         <f t="shared" si="0"/>
@@ -17338,7 +17319,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="15">
         <f t="shared" si="0"/>
@@ -18966,7 +18947,7 @@
       </c>
       <c r="G35" s="36">
         <f t="shared" si="0"/>
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="H35" s="37">
         <f t="shared" ref="H35:AL35" si="1">SUM(H3:H34)</f>
@@ -19014,7 +18995,7 @@
       </c>
       <c r="S35" s="72">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T35" s="72">
         <f t="shared" si="1"/>
@@ -19527,12 +19508,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G34">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G34">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19546,7 +19527,7 @@
   <dimension ref="A1:BB43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -19822,14 +19803,24 @@
     </row>
     <row r="4" spans="1:54" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="21">
+        <v>85</v>
+      </c>
+      <c r="C4" s="23">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23">
+        <v>54</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>37</v>
+      </c>
       <c r="G4" s="15">
-        <f t="shared" ref="G3:G36" si="1">SUM(H4:AK4)</f>
-        <v>0</v>
+        <f t="shared" ref="G4:G36" si="1">SUM(H4:AK4)</f>
+        <v>0.5</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
@@ -19841,7 +19832,9 @@
       <c r="O4" s="23"/>
       <c r="P4" s="23"/>
       <c r="Q4" s="23"/>
-      <c r="R4" s="19"/>
+      <c r="R4" s="19">
+        <v>0.5</v>
+      </c>
       <c r="S4" s="19"/>
       <c r="T4" s="23"/>
       <c r="U4" s="23"/>
@@ -19881,14 +19874,24 @@
     </row>
     <row r="5" spans="1:54" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="21">
+        <v>85</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2</v>
+      </c>
+      <c r="D5" s="23">
+        <v>54</v>
+      </c>
+      <c r="E5" s="24">
+        <v>0</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>37</v>
+      </c>
       <c r="G5" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -19901,7 +19904,9 @@
       <c r="P5" s="23"/>
       <c r="Q5" s="23"/>
       <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
+      <c r="S5" s="19">
+        <v>1</v>
+      </c>
       <c r="T5" s="23"/>
       <c r="U5" s="23"/>
       <c r="V5" s="23"/>
@@ -19940,14 +19945,24 @@
     </row>
     <row r="6" spans="1:54" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="21">
+        <v>85</v>
+      </c>
+      <c r="C6" s="23">
+        <v>2</v>
+      </c>
+      <c r="D6" s="23">
+        <v>44</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>38</v>
+      </c>
       <c r="G6" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
@@ -19963,7 +19978,9 @@
       <c r="S6" s="19"/>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
+      <c r="V6" s="23">
+        <v>2</v>
+      </c>
       <c r="W6" s="23"/>
       <c r="X6" s="23"/>
       <c r="Y6" s="19"/>
@@ -19999,14 +20016,24 @@
     </row>
     <row r="7" spans="1:54" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="21">
+        <v>85</v>
+      </c>
+      <c r="C7" s="23">
+        <v>2</v>
+      </c>
+      <c r="D7" s="23">
+        <v>53</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>40</v>
+      </c>
       <c r="G7" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -20026,7 +20053,9 @@
       <c r="W7" s="23"/>
       <c r="X7" s="23"/>
       <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
+      <c r="Z7" s="19">
+        <v>1</v>
+      </c>
       <c r="AA7" s="23"/>
       <c r="AB7" s="23"/>
       <c r="AC7" s="23"/>
@@ -21719,7 +21748,7 @@
       </c>
       <c r="G36" s="36">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" ref="H36:AK36" si="2">SUM(H3:H35)</f>
@@ -21763,11 +21792,11 @@
       </c>
       <c r="R36" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S36" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="72">
         <f t="shared" si="2"/>
@@ -21779,7 +21808,7 @@
       </c>
       <c r="V36" s="72">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="72">
         <f t="shared" si="2"/>
@@ -21795,7 +21824,7 @@
       </c>
       <c r="Z36" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36" s="72">
         <f t="shared" si="2"/>
@@ -22269,22 +22298,22 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25055,12 +25084,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27783,12 +27812,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30560,12 +30589,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33336,12 +33365,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36064,12 +36093,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/team/efforts/Recopilacion_Esfuerzos_Carlos.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Carlos.xlsx
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="41">
   <si>
     <t>GP</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>Diseño del esquema E/R de la BD</t>
+  </si>
+  <si>
+    <t>Reunión para el reparto de tareas</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1787,7 @@
                   <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1874,11 +1877,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82132352"/>
-        <c:axId val="82151296"/>
+        <c:axId val="90918272"/>
+        <c:axId val="90937216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82132352"/>
+        <c:axId val="90918272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1914,13 +1917,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82151296"/>
+        <c:crossAx val="90937216"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82151296"/>
+        <c:axId val="90937216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1971,7 +1974,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82132352"/>
+        <c:crossAx val="90918272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1992,7 +1995,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13655,7 +13658,7 @@
       </c>
       <c r="G6" s="114">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>13.25</v>
+        <v>14.25</v>
       </c>
       <c r="H6" s="116">
         <f>Ene!G36</f>
@@ -13671,7 +13674,7 @@
       </c>
       <c r="K6" s="116">
         <f>Abr!G36</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6" s="116">
         <f>May!G36</f>
@@ -19524,7 +19527,7 @@
   <dimension ref="A1:BB43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -20013,14 +20016,24 @@
     </row>
     <row r="7" spans="1:54" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="21">
+        <v>85</v>
+      </c>
+      <c r="C7" s="23">
+        <v>2</v>
+      </c>
+      <c r="D7" s="23">
+        <v>53</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>40</v>
+      </c>
       <c r="G7" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -20040,7 +20053,9 @@
       <c r="W7" s="23"/>
       <c r="X7" s="23"/>
       <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
+      <c r="Z7" s="19">
+        <v>1</v>
+      </c>
       <c r="AA7" s="23"/>
       <c r="AB7" s="23"/>
       <c r="AC7" s="23"/>
@@ -21733,7 +21748,7 @@
       </c>
       <c r="G36" s="36">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" ref="H36:AK36" si="2">SUM(H3:H35)</f>
@@ -21809,7 +21824,7 @@
       </c>
       <c r="Z36" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36" s="72">
         <f t="shared" si="2"/>

--- a/team/efforts/Recopilacion_Esfuerzos_Carlos.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Carlos.xlsx
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="42">
   <si>
     <t>GP</t>
   </si>
@@ -432,13 +432,16 @@
     <t>Implementación base</t>
   </si>
   <si>
-    <t>Práctica de auditoria</t>
-  </si>
-  <si>
     <t>Diseño del esquema E/R de la BD</t>
   </si>
   <si>
     <t>Reunión para el reparto de tareas</t>
+  </si>
+  <si>
+    <t>Primera parte de la auditoría interna</t>
+  </si>
+  <si>
+    <t>Práctica de auditoría</t>
   </si>
 </sst>
 </file>
@@ -1787,7 +1790,7 @@
                   <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1877,11 +1880,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="90918272"/>
-        <c:axId val="90937216"/>
+        <c:axId val="94915968"/>
+        <c:axId val="94934912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90918272"/>
+        <c:axId val="94915968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,13 +1920,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90937216"/>
+        <c:crossAx val="94934912"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90937216"/>
+        <c:axId val="94934912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1974,7 +1977,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90918272"/>
+        <c:crossAx val="94915968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1995,7 +1998,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13658,7 +13661,7 @@
       </c>
       <c r="G6" s="114">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>14.25</v>
+        <v>14.75</v>
       </c>
       <c r="H6" s="116">
         <f>Ene!G36</f>
@@ -13674,7 +13677,7 @@
       </c>
       <c r="K6" s="116">
         <f>Abr!G36</f>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L6" s="116">
         <f>May!G36</f>
@@ -16733,7 +16736,7 @@
   <dimension ref="A1:BC42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -17247,7 +17250,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="15">
         <f t="shared" si="0"/>
@@ -19527,7 +19530,7 @@
   <dimension ref="A1:BB43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -19958,7 +19961,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G6" s="15">
         <f t="shared" si="1"/>
@@ -20029,7 +20032,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="15">
         <f t="shared" si="1"/>
@@ -20087,14 +20090,24 @@
     </row>
     <row r="8" spans="1:54" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="21">
+        <v>85</v>
+      </c>
+      <c r="C8" s="23">
+        <v>2</v>
+      </c>
+      <c r="D8" s="23">
+        <v>44</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>40</v>
+      </c>
       <c r="G8" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
@@ -20121,7 +20134,9 @@
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
+      <c r="AG8" s="19">
+        <v>0.5</v>
+      </c>
       <c r="AH8" s="23"/>
       <c r="AI8" s="23"/>
       <c r="AJ8" s="23"/>
@@ -21748,7 +21763,7 @@
       </c>
       <c r="G36" s="36">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" ref="H36:AK36" si="2">SUM(H3:H35)</f>
@@ -21852,7 +21867,7 @@
       </c>
       <c r="AG36" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH36" s="72">
         <f t="shared" si="2"/>

--- a/team/efforts/Recopilacion_Esfuerzos_Carlos.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Carlos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="570" windowWidth="28215" windowHeight="11955" activeTab="3"/>
+    <workbookView xWindow="270" yWindow="570" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ene" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="Print_Area" localSheetId="9">Oct!$A$1:$AS$37</definedName>
     <definedName name="Print_Area" localSheetId="8">Sep!$A$1:$AR$37</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -447,8 +447,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1730,12 +1730,27 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1756,11 +1771,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1819,6 +1837,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1878,16 +1897,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="94915968"/>
-        <c:axId val="94934912"/>
+        <c:smooth val="0"/>
+        <c:axId val="77511296"/>
+        <c:axId val="77513472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94915968"/>
+        <c:axId val="77511296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1908,7 +1938,10 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1920,16 +1953,19 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94934912"/>
+        <c:crossAx val="77513472"/>
         <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94934912"/>
+        <c:axId val="77513472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1959,8 +1995,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -1977,7 +2016,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94915968"/>
+        <c:crossAx val="77511296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1989,7 +2028,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2005,6 +2048,198 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5122" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9218" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12290" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11266" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="3200400" y="2276475"/>
@@ -2026,6 +2261,390 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3074" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2050" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4098" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6146" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8194" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7170" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10242" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2104,6 +2723,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2138,6 +2758,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2313,12 +2934,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -2331,7 +2952,7 @@
     <col min="47" max="57" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="13.5" customHeight="1">
+    <row r="1" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2390,7 +3011,7 @@
       <c r="BD1" s="1"/>
       <c r="BE1" s="1"/>
     </row>
-    <row r="2" spans="1:57" ht="16.5" customHeight="1">
+    <row r="2" spans="1:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -2529,7 +3150,7 @@
       <c r="BD2" s="2"/>
       <c r="BE2" s="2"/>
     </row>
-    <row r="3" spans="1:57" ht="13.5" customHeight="1">
+    <row r="3" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -2590,7 +3211,7 @@
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
     </row>
-    <row r="4" spans="1:57" ht="13.5" customHeight="1">
+    <row r="4" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -2651,7 +3272,7 @@
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
     </row>
-    <row r="5" spans="1:57" ht="13.5" customHeight="1">
+    <row r="5" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="62"/>
       <c r="C5" s="63"/>
@@ -2712,7 +3333,7 @@
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
     </row>
-    <row r="6" spans="1:57" ht="13.5" customHeight="1">
+    <row r="6" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="62"/>
       <c r="C6" s="63"/>
@@ -2771,7 +3392,7 @@
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
     </row>
-    <row r="7" spans="1:57" ht="13.5" customHeight="1">
+    <row r="7" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="62"/>
       <c r="C7" s="63"/>
@@ -2832,7 +3453,7 @@
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
     </row>
-    <row r="8" spans="1:57" ht="13.5" customHeight="1">
+    <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="62"/>
       <c r="C8" s="63"/>
@@ -2893,7 +3514,7 @@
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
     </row>
-    <row r="9" spans="1:57" ht="13.5" customHeight="1">
+    <row r="9" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="62"/>
       <c r="C9" s="63"/>
@@ -2954,7 +3575,7 @@
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
     </row>
-    <row r="10" spans="1:57" ht="13.5" customHeight="1">
+    <row r="10" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="62"/>
       <c r="C10" s="63"/>
@@ -3015,7 +3636,7 @@
       <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
     </row>
-    <row r="11" spans="1:57" ht="13.5" customHeight="1">
+    <row r="11" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="62"/>
       <c r="C11" s="63"/>
@@ -3076,7 +3697,7 @@
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
     </row>
-    <row r="12" spans="1:57" ht="13.5" customHeight="1">
+    <row r="12" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="62"/>
       <c r="C12" s="63"/>
@@ -3135,7 +3756,7 @@
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
     </row>
-    <row r="13" spans="1:57" ht="13.5" customHeight="1">
+    <row r="13" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="62"/>
       <c r="C13" s="63"/>
@@ -3194,7 +3815,7 @@
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
     </row>
-    <row r="14" spans="1:57" ht="13.5" customHeight="1">
+    <row r="14" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="62"/>
       <c r="C14" s="63"/>
@@ -3253,7 +3874,7 @@
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
     </row>
-    <row r="15" spans="1:57" ht="13.5" customHeight="1">
+    <row r="15" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="62"/>
       <c r="C15" s="63"/>
@@ -3312,7 +3933,7 @@
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
     </row>
-    <row r="16" spans="1:57" ht="13.5" customHeight="1">
+    <row r="16" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="67"/>
       <c r="C16" s="69"/>
@@ -3371,7 +3992,7 @@
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
     </row>
-    <row r="17" spans="1:57" ht="13.5" customHeight="1">
+    <row r="17" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="67"/>
       <c r="C17" s="69"/>
@@ -3430,7 +4051,7 @@
       <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
     </row>
-    <row r="18" spans="1:57" ht="13.5" customHeight="1">
+    <row r="18" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -3489,7 +4110,7 @@
       <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
     </row>
-    <row r="19" spans="1:57" ht="13.5" customHeight="1">
+    <row r="19" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -3548,7 +4169,7 @@
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
     </row>
-    <row r="20" spans="1:57" ht="13.5" customHeight="1">
+    <row r="20" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -3607,7 +4228,7 @@
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
     </row>
-    <row r="21" spans="1:57" ht="13.5" customHeight="1">
+    <row r="21" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -3666,7 +4287,7 @@
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
     </row>
-    <row r="22" spans="1:57" ht="13.5" customHeight="1">
+    <row r="22" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -3725,7 +4346,7 @@
       <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
     </row>
-    <row r="23" spans="1:57" ht="13.5" customHeight="1">
+    <row r="23" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -3784,7 +4405,7 @@
       <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
     </row>
-    <row r="24" spans="1:57" ht="13.5" customHeight="1">
+    <row r="24" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -3843,7 +4464,7 @@
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
     </row>
-    <row r="25" spans="1:57" ht="13.5" customHeight="1">
+    <row r="25" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -3902,7 +4523,7 @@
       <c r="BD25" s="1"/>
       <c r="BE25" s="1"/>
     </row>
-    <row r="26" spans="1:57" ht="13.5" customHeight="1">
+    <row r="26" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -3961,7 +4582,7 @@
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
     </row>
-    <row r="27" spans="1:57" ht="13.5" customHeight="1">
+    <row r="27" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -4020,7 +4641,7 @@
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
     </row>
-    <row r="28" spans="1:57" ht="13.5" customHeight="1">
+    <row r="28" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -4079,7 +4700,7 @@
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
     </row>
-    <row r="29" spans="1:57" ht="13.5" customHeight="1">
+    <row r="29" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -4138,7 +4759,7 @@
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
     </row>
-    <row r="30" spans="1:57" ht="13.5" customHeight="1">
+    <row r="30" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -4197,7 +4818,7 @@
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
     </row>
-    <row r="31" spans="1:57" ht="13.5" customHeight="1">
+    <row r="31" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -4256,7 +4877,7 @@
       <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
     </row>
-    <row r="32" spans="1:57" ht="13.5" customHeight="1">
+    <row r="32" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -4315,7 +4936,7 @@
       <c r="BD32" s="1"/>
       <c r="BE32" s="1"/>
     </row>
-    <row r="33" spans="1:57" ht="13.5" customHeight="1">
+    <row r="33" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -4374,7 +4995,7 @@
       <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
     </row>
-    <row r="34" spans="1:57" ht="13.5" customHeight="1">
+    <row r="34" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -4433,7 +5054,7 @@
       <c r="BD34" s="1"/>
       <c r="BE34" s="1"/>
     </row>
-    <row r="35" spans="1:57" ht="14.25" customHeight="1">
+    <row r="35" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -4492,7 +5113,7 @@
       <c r="BD35" s="1"/>
       <c r="BE35" s="1"/>
     </row>
-    <row r="36" spans="1:57" ht="13.5" customHeight="1">
+    <row r="36" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4558,7 +5179,7 @@
       <c r="BD36" s="1"/>
       <c r="BE36" s="1"/>
     </row>
-    <row r="37" spans="1:57" ht="15.75" customHeight="1">
+    <row r="37" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4617,7 +5238,7 @@
       <c r="BD37" s="1"/>
       <c r="BE37" s="1"/>
     </row>
-    <row r="38" spans="1:57" ht="12.75" customHeight="1">
+    <row r="38" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -4680,7 +5301,7 @@
       <c r="BD38" s="1"/>
       <c r="BE38" s="1"/>
     </row>
-    <row r="39" spans="1:57" ht="12.75" customHeight="1">
+    <row r="39" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -4739,7 +5360,7 @@
       <c r="BD39" s="1"/>
       <c r="BE39" s="1"/>
     </row>
-    <row r="40" spans="1:57" ht="12.75" customHeight="1">
+    <row r="40" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -4800,7 +5421,7 @@
       <c r="BD40" s="1"/>
       <c r="BE40" s="1"/>
     </row>
-    <row r="41" spans="1:57" ht="12.75" customHeight="1">
+    <row r="41" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4859,7 +5480,7 @@
       <c r="BD41" s="1"/>
       <c r="BE41" s="1"/>
     </row>
-    <row r="42" spans="1:57" ht="12.75" customHeight="1">
+    <row r="42" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4920,7 +5541,7 @@
       <c r="BD42" s="1"/>
       <c r="BE42" s="1"/>
     </row>
-    <row r="43" spans="1:57" ht="12.75" customHeight="1">
+    <row r="43" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -4994,17 +5615,18 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -5016,7 +5638,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5073,7 +5695,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="16.5" customHeight="1">
+    <row r="2" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -5208,7 +5830,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1">
+    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -5268,7 +5890,7 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1">
+    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -5328,7 +5950,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1">
+    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -5388,7 +6010,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -5448,7 +6070,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -5508,7 +6130,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -5568,7 +6190,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -5628,7 +6250,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -5688,7 +6310,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -5748,7 +6370,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -5808,7 +6430,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -5868,7 +6490,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -5928,7 +6550,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -5988,7 +6610,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -6048,7 +6670,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -6108,7 +6730,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -6168,7 +6790,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -6228,7 +6850,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -6288,7 +6910,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -6348,7 +6970,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -6408,7 +7030,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -6468,7 +7090,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -6528,7 +7150,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -6588,7 +7210,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -6648,7 +7270,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -6708,7 +7330,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -6768,7 +7390,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -6828,7 +7450,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -6888,7 +7510,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -6948,7 +7570,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -7008,7 +7630,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -7068,7 +7690,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -7128,7 +7750,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -7188,7 +7810,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="13.5" customHeight="1">
+    <row r="36" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -7348,7 +7970,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="15.75" customHeight="1">
+    <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -7405,7 +8027,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -7466,7 +8088,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -7523,7 +8145,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -7582,7 +8204,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -7639,7 +8261,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -7698,7 +8320,7 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="1:55" ht="12.75" customHeight="1">
+    <row r="43" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -7755,7 +8377,7 @@
       <c r="BB43" s="1"/>
       <c r="BC43" s="1"/>
     </row>
-    <row r="44" spans="1:55" ht="12.75" customHeight="1">
+    <row r="44" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -7827,17 +8449,18 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -7849,7 +8472,7 @@
     <col min="45" max="54" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="13.5" customHeight="1">
+    <row r="1" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7905,7 +8528,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="1:54" ht="16.5" customHeight="1">
+    <row r="2" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -8037,7 +8660,7 @@
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
     </row>
-    <row r="3" spans="1:54" ht="13.5" customHeight="1">
+    <row r="3" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -8096,7 +8719,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="1:54" ht="13.5" customHeight="1">
+    <row r="4" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -8155,7 +8778,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="1:54" ht="13.5" customHeight="1">
+    <row r="5" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -8214,7 +8837,7 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:54" ht="13.5" customHeight="1">
+    <row r="6" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -8273,7 +8896,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" ht="13.5" customHeight="1">
+    <row r="7" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -8332,7 +8955,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" ht="13.5" customHeight="1">
+    <row r="8" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -8391,7 +9014,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" ht="13.5" customHeight="1">
+    <row r="9" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -8450,7 +9073,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:54" ht="13.5" customHeight="1">
+    <row r="10" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -8509,7 +9132,7 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:54" ht="13.5" customHeight="1">
+    <row r="11" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -8568,7 +9191,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:54" ht="13.5" customHeight="1">
+    <row r="12" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -8627,7 +9250,7 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:54" ht="13.5" customHeight="1">
+    <row r="13" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -8686,7 +9309,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:54" ht="13.5" customHeight="1">
+    <row r="14" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -8745,7 +9368,7 @@
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
     </row>
-    <row r="15" spans="1:54" ht="13.5" customHeight="1">
+    <row r="15" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -8804,7 +9427,7 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="1:54" ht="13.5" customHeight="1">
+    <row r="16" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -8863,7 +9486,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="1:54" ht="13.5" customHeight="1">
+    <row r="17" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -8922,7 +9545,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="1:54" ht="13.5" customHeight="1">
+    <row r="18" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -8981,7 +9604,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="1:54" ht="13.5" customHeight="1">
+    <row r="19" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -9040,7 +9663,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="1:54" ht="13.5" customHeight="1">
+    <row r="20" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -9099,7 +9722,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="1:54" ht="13.5" customHeight="1">
+    <row r="21" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -9158,7 +9781,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="1:54" ht="13.5" customHeight="1">
+    <row r="22" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -9217,7 +9840,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="1:54" ht="13.5" customHeight="1">
+    <row r="23" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -9276,7 +9899,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="1:54" ht="13.5" customHeight="1">
+    <row r="24" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -9335,7 +9958,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="1:54" ht="13.5" customHeight="1">
+    <row r="25" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -9394,7 +10017,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="1:54" ht="13.5" customHeight="1">
+    <row r="26" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -9453,7 +10076,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="1:54" ht="13.5" customHeight="1">
+    <row r="27" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -9512,7 +10135,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="1:54" ht="13.5" customHeight="1">
+    <row r="28" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -9571,7 +10194,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="1:54" ht="13.5" customHeight="1">
+    <row r="29" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -9630,7 +10253,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="1:54" ht="13.5" customHeight="1">
+    <row r="30" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -9689,7 +10312,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="1:54" ht="13.5" customHeight="1">
+    <row r="31" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -9748,7 +10371,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="1:54" ht="13.5" customHeight="1">
+    <row r="32" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -9807,7 +10430,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="1:54" ht="13.5" customHeight="1">
+    <row r="33" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -9866,7 +10489,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="1:54" ht="13.5" customHeight="1">
+    <row r="34" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -9925,7 +10548,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="1:54" ht="13.5" customHeight="1">
+    <row r="35" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -9984,7 +10607,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="1:54" ht="13.5" customHeight="1">
+    <row r="36" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -10140,7 +10763,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="1:54" ht="15.75" customHeight="1">
+    <row r="37" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -10196,7 +10819,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="1:54" ht="12.75" customHeight="1">
+    <row r="38" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -10256,7 +10879,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="1:54" ht="12.75" customHeight="1">
+    <row r="39" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -10312,7 +10935,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="1:54" ht="12.75" customHeight="1">
+    <row r="40" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -10370,7 +10993,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="1:54" ht="12.75" customHeight="1">
+    <row r="41" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -10426,7 +11049,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="1:54" ht="12.75" customHeight="1">
+    <row r="42" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -10484,7 +11107,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="1:54" ht="12.75" customHeight="1">
+    <row r="43" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -10540,7 +11163,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="1:54" ht="12.75" customHeight="1">
+    <row r="44" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -10611,17 +11234,18 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -10633,7 +11257,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10690,7 +11314,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="15.75" customHeight="1">
+    <row r="2" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -10825,7 +11449,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1">
+    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -10885,7 +11509,7 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1">
+    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -10945,7 +11569,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1">
+    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -11005,7 +11629,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -11065,7 +11689,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -11125,7 +11749,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -11185,7 +11809,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -11245,7 +11869,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -11305,7 +11929,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -11365,7 +11989,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -11425,7 +12049,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -11485,7 +12109,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -11545,7 +12169,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -11605,7 +12229,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -11665,7 +12289,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -11725,7 +12349,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -11785,7 +12409,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -11845,7 +12469,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -11905,7 +12529,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -11965,7 +12589,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -12025,7 +12649,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -12085,7 +12709,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -12145,7 +12769,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -12205,7 +12829,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -12265,7 +12889,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -12325,7 +12949,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -12385,7 +13009,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -12445,7 +13069,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -12505,7 +13129,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -12565,7 +13189,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -12625,7 +13249,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -12685,7 +13309,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -12745,7 +13369,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -12805,7 +13429,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="13.5" customHeight="1">
+    <row r="36" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -12965,7 +13589,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="15.75" customHeight="1">
+    <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -13022,7 +13646,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -13083,7 +13707,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -13140,7 +13764,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -13199,7 +13823,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -13256,7 +13880,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -13315,7 +13939,7 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="1:55" ht="12.75" customHeight="1">
+    <row r="43" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -13372,7 +13996,7 @@
       <c r="BB43" s="1"/>
       <c r="BC43" s="1"/>
     </row>
-    <row r="44" spans="1:55" ht="12.75" customHeight="1">
+    <row r="44" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -13444,17 +14068,18 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3.7109375" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -13463,7 +14088,7 @@
     <col min="20" max="29" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="21" customHeight="1">
+    <row r="1" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -13494,7 +14119,7 @@
       <c r="AB1" s="9"/>
       <c r="AC1" s="9"/>
     </row>
-    <row r="2" spans="1:29" ht="15.75" customHeight="1">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -13527,7 +14152,7 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
     </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -13560,7 +14185,7 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
     </row>
-    <row r="4" spans="1:29" ht="21" customHeight="1">
+    <row r="4" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="108"/>
       <c r="B4" s="108"/>
       <c r="C4" s="108"/>
@@ -13591,7 +14216,7 @@
       <c r="AB4" s="108"/>
       <c r="AC4" s="108"/>
     </row>
-    <row r="5" spans="1:29" ht="16.5" customHeight="1">
+    <row r="5" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57"/>
       <c r="B5" s="57"/>
       <c r="C5" s="57"/>
@@ -13650,7 +14275,7 @@
       <c r="AB5" s="108"/>
       <c r="AC5" s="108"/>
     </row>
-    <row r="6" spans="1:29" ht="16.5" customHeight="1">
+    <row r="6" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -13722,7 +14347,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
     </row>
-    <row r="7" spans="1:29" ht="15.75" customHeight="1">
+    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -13794,7 +14419,7 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
     </row>
-    <row r="8" spans="1:29" ht="15.75" customHeight="1">
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -13825,7 +14450,7 @@
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
     </row>
-    <row r="9" spans="1:29" ht="15.75" customHeight="1">
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -13856,7 +14481,7 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
     </row>
-    <row r="10" spans="1:29" ht="15.75" customHeight="1">
+    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -13887,7 +14512,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
     </row>
-    <row r="11" spans="1:29" ht="15.75" customHeight="1">
+    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -13918,7 +14543,7 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
     </row>
-    <row r="12" spans="1:29" ht="15.75" customHeight="1">
+    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -13949,7 +14574,7 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
     </row>
-    <row r="13" spans="1:29" ht="15.75" customHeight="1">
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -13980,7 +14605,7 @@
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
     </row>
-    <row r="14" spans="1:29" ht="15.75" customHeight="1">
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -14011,7 +14636,7 @@
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
     </row>
-    <row r="15" spans="1:29" ht="15.75" customHeight="1">
+    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -14042,7 +14667,7 @@
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
     </row>
-    <row r="16" spans="1:29" ht="15.75" customHeight="1">
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -14073,7 +14698,7 @@
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
     </row>
-    <row r="17" spans="1:29" ht="15.75" customHeight="1">
+    <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -14104,7 +14729,7 @@
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
     </row>
-    <row r="18" spans="1:29" ht="15.75" customHeight="1">
+    <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -14135,7 +14760,7 @@
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
     </row>
-    <row r="19" spans="1:29" ht="15.75" customHeight="1">
+    <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -14166,7 +14791,7 @@
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
     </row>
-    <row r="20" spans="1:29" ht="15.75" customHeight="1">
+    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -14197,25 +14822,25 @@
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
     </row>
-    <row r="21" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="22" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="23" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:29" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="G6:G7">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
@@ -14233,14 +14858,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -14252,7 +14877,7 @@
     <col min="43" max="52" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -14306,7 +14931,7 @@
       <c r="AY1" s="1"/>
       <c r="AZ1" s="1"/>
     </row>
-    <row r="2" spans="1:52" ht="16.5" customHeight="1" thickBot="1">
+    <row r="2" spans="1:52" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -14432,10 +15057,10 @@
       <c r="AY2" s="2"/>
       <c r="AZ2" s="2"/>
     </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1">
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="21">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="23">
         <v>2</v>
@@ -14501,10 +15126,10 @@
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
     </row>
-    <row r="4" spans="1:52" ht="13.5" customHeight="1">
+    <row r="4" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="23">
         <v>2</v>
@@ -14570,10 +15195,10 @@
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
     </row>
-    <row r="5" spans="1:52" ht="13.5" customHeight="1">
+    <row r="5" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="23">
         <v>2</v>
@@ -14639,7 +15264,7 @@
       <c r="AY5" s="1"/>
       <c r="AZ5" s="1"/>
     </row>
-    <row r="6" spans="1:52" ht="13.5" customHeight="1">
+    <row r="6" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -14696,7 +15321,7 @@
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
     </row>
-    <row r="7" spans="1:52" ht="13.5" customHeight="1">
+    <row r="7" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -14753,7 +15378,7 @@
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
     </row>
-    <row r="8" spans="1:52" ht="13.5" customHeight="1">
+    <row r="8" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -14810,7 +15435,7 @@
       <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
     </row>
-    <row r="9" spans="1:52" ht="13.5" customHeight="1">
+    <row r="9" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -14867,7 +15492,7 @@
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
     </row>
-    <row r="10" spans="1:52" ht="13.5" customHeight="1">
+    <row r="10" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -14924,7 +15549,7 @@
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
     </row>
-    <row r="11" spans="1:52" ht="13.5" customHeight="1">
+    <row r="11" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -14981,7 +15606,7 @@
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
     </row>
-    <row r="12" spans="1:52" ht="13.5" customHeight="1">
+    <row r="12" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -15038,7 +15663,7 @@
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
     </row>
-    <row r="13" spans="1:52" ht="13.5" customHeight="1">
+    <row r="13" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -15095,7 +15720,7 @@
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
     </row>
-    <row r="14" spans="1:52" ht="13.5" customHeight="1">
+    <row r="14" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -15152,7 +15777,7 @@
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
     </row>
-    <row r="15" spans="1:52" ht="13.5" customHeight="1">
+    <row r="15" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -15209,7 +15834,7 @@
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
     </row>
-    <row r="16" spans="1:52" ht="13.5" customHeight="1">
+    <row r="16" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -15266,7 +15891,7 @@
       <c r="AY16" s="1"/>
       <c r="AZ16" s="1"/>
     </row>
-    <row r="17" spans="1:52" ht="13.5" customHeight="1">
+    <row r="17" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -15323,7 +15948,7 @@
       <c r="AY17" s="1"/>
       <c r="AZ17" s="1"/>
     </row>
-    <row r="18" spans="1:52" ht="13.5" customHeight="1">
+    <row r="18" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -15380,7 +16005,7 @@
       <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
     </row>
-    <row r="19" spans="1:52" ht="13.5" customHeight="1">
+    <row r="19" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -15437,7 +16062,7 @@
       <c r="AY19" s="1"/>
       <c r="AZ19" s="1"/>
     </row>
-    <row r="20" spans="1:52" ht="13.5" customHeight="1">
+    <row r="20" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -15494,7 +16119,7 @@
       <c r="AY20" s="1"/>
       <c r="AZ20" s="1"/>
     </row>
-    <row r="21" spans="1:52" ht="13.5" customHeight="1">
+    <row r="21" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -15551,7 +16176,7 @@
       <c r="AY21" s="1"/>
       <c r="AZ21" s="1"/>
     </row>
-    <row r="22" spans="1:52" ht="13.5" customHeight="1">
+    <row r="22" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -15608,7 +16233,7 @@
       <c r="AY22" s="1"/>
       <c r="AZ22" s="1"/>
     </row>
-    <row r="23" spans="1:52" ht="13.5" customHeight="1">
+    <row r="23" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -15665,7 +16290,7 @@
       <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
     </row>
-    <row r="24" spans="1:52" ht="13.5" customHeight="1">
+    <row r="24" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -15722,7 +16347,7 @@
       <c r="AY24" s="1"/>
       <c r="AZ24" s="1"/>
     </row>
-    <row r="25" spans="1:52" ht="13.5" customHeight="1">
+    <row r="25" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -15779,7 +16404,7 @@
       <c r="AY25" s="1"/>
       <c r="AZ25" s="1"/>
     </row>
-    <row r="26" spans="1:52" ht="13.5" customHeight="1">
+    <row r="26" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -15836,7 +16461,7 @@
       <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
     </row>
-    <row r="27" spans="1:52" ht="13.5" customHeight="1">
+    <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -15893,7 +16518,7 @@
       <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
     </row>
-    <row r="28" spans="1:52" ht="13.5" customHeight="1">
+    <row r="28" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -15950,7 +16575,7 @@
       <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
     </row>
-    <row r="29" spans="1:52" ht="13.5" customHeight="1">
+    <row r="29" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -16007,7 +16632,7 @@
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
     </row>
-    <row r="30" spans="1:52" ht="13.5" customHeight="1">
+    <row r="30" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -16064,7 +16689,7 @@
       <c r="AY30" s="1"/>
       <c r="AZ30" s="1"/>
     </row>
-    <row r="31" spans="1:52" ht="13.5" customHeight="1">
+    <row r="31" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -16121,7 +16746,7 @@
       <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
     </row>
-    <row r="32" spans="1:52" ht="13.5" customHeight="1">
+    <row r="32" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="26"/>
       <c r="C32" s="27"/>
@@ -16178,7 +16803,7 @@
       <c r="AY32" s="1"/>
       <c r="AZ32" s="1"/>
     </row>
-    <row r="33" spans="1:52" ht="13.5" customHeight="1">
+    <row r="33" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -16326,7 +16951,7 @@
       <c r="AY33" s="1"/>
       <c r="AZ33" s="1"/>
     </row>
-    <row r="34" spans="1:52" ht="15.75" customHeight="1">
+    <row r="34" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -16380,7 +17005,7 @@
       <c r="AY34" s="1"/>
       <c r="AZ34" s="1"/>
     </row>
-    <row r="35" spans="1:52" ht="12.75" customHeight="1">
+    <row r="35" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -16438,7 +17063,7 @@
       <c r="AY35" s="1"/>
       <c r="AZ35" s="1"/>
     </row>
-    <row r="36" spans="1:52" ht="12.75" customHeight="1">
+    <row r="36" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -16492,7 +17117,7 @@
       <c r="AY36" s="1"/>
       <c r="AZ36" s="1"/>
     </row>
-    <row r="37" spans="1:52" ht="12.75" customHeight="1">
+    <row r="37" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -16548,7 +17173,7 @@
       <c r="AY37" s="1"/>
       <c r="AZ37" s="1"/>
     </row>
-    <row r="38" spans="1:52" ht="12.75" customHeight="1">
+    <row r="38" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -16602,7 +17227,7 @@
       <c r="AY38" s="1"/>
       <c r="AZ38" s="1"/>
     </row>
-    <row r="39" spans="1:52" ht="12.75" customHeight="1">
+    <row r="39" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -16658,7 +17283,7 @@
       <c r="AY39" s="1"/>
       <c r="AZ39" s="1"/>
     </row>
-    <row r="40" spans="1:52" ht="12.75" customHeight="1">
+    <row r="40" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -16727,19 +17352,20 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -16751,7 +17377,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -16808,7 +17434,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="16.5" customHeight="1">
+    <row r="2" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -16943,10 +17569,10 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1">
+    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="21">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="23">
         <v>2</v>
@@ -17019,10 +17645,10 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1">
+    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="23">
         <v>2</v>
@@ -17091,10 +17717,10 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1">
+    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="23">
         <v>2</v>
@@ -17163,10 +17789,10 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="21">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="23">
         <v>2</v>
@@ -17235,10 +17861,10 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="23">
         <v>2</v>
@@ -17307,10 +17933,10 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="21">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="23">
         <v>2</v>
@@ -17379,7 +18005,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -17439,7 +18065,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -17499,7 +18125,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -17559,7 +18185,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -17619,7 +18245,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -17679,7 +18305,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -17739,7 +18365,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -17799,7 +18425,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -17859,7 +18485,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -17919,7 +18545,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -17979,7 +18605,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -18039,7 +18665,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -18099,7 +18725,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -18159,7 +18785,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -18219,7 +18845,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -18279,7 +18905,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -18339,7 +18965,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -18399,7 +19025,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -18459,7 +19085,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -18519,7 +19145,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -18579,7 +19205,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -18639,7 +19265,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -18699,7 +19325,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -18759,7 +19385,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -18819,7 +19445,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -18879,7 +19505,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="26"/>
       <c r="C34" s="27"/>
@@ -18939,7 +19565,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -19099,7 +19725,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="15.75" customHeight="1">
+    <row r="36" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -19156,7 +19782,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="12.75" customHeight="1">
+    <row r="37" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -19217,7 +19843,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -19274,7 +19900,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -19333,7 +19959,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -19390,7 +20016,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -19449,7 +20075,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -19521,19 +20147,20 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -19545,7 +20172,7 @@
     <col min="45" max="54" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="13.5" customHeight="1">
+    <row r="1" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -19601,7 +20228,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="1:54" ht="16.5" customHeight="1">
+    <row r="2" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -19733,10 +20360,10 @@
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
     </row>
-    <row r="3" spans="1:54" ht="13.5" customHeight="1">
+    <row r="3" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="21">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="23">
         <v>2</v>
@@ -19804,10 +20431,10 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="1:54" ht="13.5" customHeight="1">
+    <row r="4" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="23">
         <v>2</v>
@@ -19875,10 +20502,10 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="1:54" ht="13.5" customHeight="1">
+    <row r="5" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="23">
         <v>2</v>
@@ -19946,10 +20573,10 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:54" ht="13.5" customHeight="1">
+    <row r="6" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="21">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="23">
         <v>2</v>
@@ -20017,10 +20644,10 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" ht="13.5" customHeight="1">
+    <row r="7" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="23">
         <v>2</v>
@@ -20088,10 +20715,10 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" ht="13.5" customHeight="1">
+    <row r="8" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="21">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="23">
         <v>2</v>
@@ -20159,7 +20786,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" ht="13.5" customHeight="1">
+    <row r="9" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -20218,7 +20845,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:54" ht="13.5" customHeight="1">
+    <row r="10" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -20277,7 +20904,7 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:54" ht="13.5" customHeight="1">
+    <row r="11" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -20336,7 +20963,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:54" ht="13.5" customHeight="1">
+    <row r="12" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -20395,7 +21022,7 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:54" ht="13.5" customHeight="1">
+    <row r="13" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -20454,7 +21081,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:54" ht="13.5" customHeight="1">
+    <row r="14" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -20513,7 +21140,7 @@
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
     </row>
-    <row r="15" spans="1:54" ht="13.5" customHeight="1">
+    <row r="15" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -20572,7 +21199,7 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="1:54" ht="13.5" customHeight="1">
+    <row r="16" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -20631,7 +21258,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="1:54" ht="13.5" customHeight="1">
+    <row r="17" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -20690,7 +21317,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="1:54" ht="13.5" customHeight="1">
+    <row r="18" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -20749,7 +21376,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="1:54" ht="13.5" customHeight="1">
+    <row r="19" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -20808,7 +21435,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="1:54" ht="13.5" customHeight="1">
+    <row r="20" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -20867,7 +21494,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="1:54" ht="13.5" customHeight="1">
+    <row r="21" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -20926,7 +21553,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="1:54" ht="13.5" customHeight="1">
+    <row r="22" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -20985,7 +21612,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="1:54" ht="13.5" customHeight="1">
+    <row r="23" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -21044,7 +21671,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="1:54" ht="13.5" customHeight="1">
+    <row r="24" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -21103,7 +21730,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="1:54" ht="13.5" customHeight="1">
+    <row r="25" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -21162,7 +21789,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="1:54" ht="13.5" customHeight="1">
+    <row r="26" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -21221,7 +21848,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="1:54" ht="13.5" customHeight="1">
+    <row r="27" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -21280,7 +21907,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="1:54" ht="13.5" customHeight="1">
+    <row r="28" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -21339,7 +21966,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="1:54" ht="13.5" customHeight="1">
+    <row r="29" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -21398,7 +22025,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="1:54" ht="13.5" customHeight="1">
+    <row r="30" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -21457,7 +22084,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="1:54" ht="13.5" customHeight="1">
+    <row r="31" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -21516,7 +22143,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="1:54" ht="13.5" customHeight="1">
+    <row r="32" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -21575,7 +22202,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="1:54" ht="13.5" customHeight="1">
+    <row r="33" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -21634,7 +22261,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="1:54" ht="13.5" customHeight="1">
+    <row r="34" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -21693,7 +22320,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="1:54" ht="13.5" customHeight="1">
+    <row r="35" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -21752,7 +22379,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="1:54" ht="13.5" customHeight="1">
+    <row r="36" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -21908,7 +22535,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="1:54" ht="15.75" customHeight="1">
+    <row r="37" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -21964,7 +22591,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="1:54" ht="12.75" customHeight="1">
+    <row r="38" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -22024,7 +22651,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="1:54" ht="12.75" customHeight="1">
+    <row r="39" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -22080,7 +22707,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="1:54" ht="12.75" customHeight="1">
+    <row r="40" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -22138,7 +22765,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="1:54" ht="12.75" customHeight="1">
+    <row r="41" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -22194,7 +22821,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="1:54" ht="12.75" customHeight="1">
+    <row r="42" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -22252,7 +22879,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="1:54" ht="12.75" customHeight="1">
+    <row r="43" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -22333,17 +22960,18 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -22355,7 +22983,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -22412,7 +23040,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="16.5" customHeight="1">
+    <row r="2" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -22547,7 +23175,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1">
+    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -22607,7 +23235,7 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1">
+    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -22667,7 +23295,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1">
+    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -22727,7 +23355,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -22787,7 +23415,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -22847,7 +23475,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -22907,7 +23535,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -22967,7 +23595,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -23027,7 +23655,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -23087,7 +23715,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -23147,7 +23775,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -23207,7 +23835,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -23267,7 +23895,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -23327,7 +23955,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -23387,7 +24015,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -23447,7 +24075,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -23507,7 +24135,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -23567,7 +24195,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -23627,7 +24255,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -23687,7 +24315,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -23747,7 +24375,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -23807,7 +24435,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -23867,7 +24495,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -23927,7 +24555,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -23987,7 +24615,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -24047,7 +24675,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -24107,7 +24735,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -24167,7 +24795,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -24227,7 +24855,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -24287,7 +24915,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -24347,7 +24975,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -24407,7 +25035,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -24467,7 +25095,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -24527,7 +25155,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="13.5" customHeight="1">
+    <row r="36" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -24687,7 +25315,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="15.75" customHeight="1">
+    <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -24744,7 +25372,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -24805,7 +25433,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -24862,7 +25490,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -24921,7 +25549,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -24978,7 +25606,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -25037,7 +25665,7 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="1:55" ht="12.75" customHeight="1">
+    <row r="43" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -25109,17 +25737,18 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -25131,7 +25760,7 @@
     <col min="45" max="54" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="13.5" customHeight="1">
+    <row r="1" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -25187,7 +25816,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="1:54" ht="16.5" customHeight="1">
+    <row r="2" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -25319,7 +25948,7 @@
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
     </row>
-    <row r="3" spans="1:54" ht="13.5" customHeight="1">
+    <row r="3" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -25378,7 +26007,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="1:54" ht="13.5" customHeight="1">
+    <row r="4" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -25437,7 +26066,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="1:54" ht="13.5" customHeight="1">
+    <row r="5" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -25496,7 +26125,7 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:54" ht="13.5" customHeight="1">
+    <row r="6" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -25555,7 +26184,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" ht="13.5" customHeight="1">
+    <row r="7" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -25614,7 +26243,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" ht="13.5" customHeight="1">
+    <row r="8" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -25673,7 +26302,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" ht="13.5" customHeight="1">
+    <row r="9" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -25732,7 +26361,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:54" ht="13.5" customHeight="1">
+    <row r="10" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -25791,7 +26420,7 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:54" ht="13.5" customHeight="1">
+    <row r="11" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -25850,7 +26479,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:54" ht="13.5" customHeight="1">
+    <row r="12" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -25909,7 +26538,7 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:54" ht="13.5" customHeight="1">
+    <row r="13" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -25968,7 +26597,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:54" ht="13.5" customHeight="1">
+    <row r="14" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -26027,7 +26656,7 @@
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
     </row>
-    <row r="15" spans="1:54" ht="13.5" customHeight="1">
+    <row r="15" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -26086,7 +26715,7 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="1:54" ht="13.5" customHeight="1">
+    <row r="16" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -26145,7 +26774,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="1:54" ht="13.5" customHeight="1">
+    <row r="17" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -26204,7 +26833,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="1:54" ht="13.5" customHeight="1">
+    <row r="18" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -26263,7 +26892,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="1:54" ht="13.5" customHeight="1">
+    <row r="19" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -26322,7 +26951,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="1:54" ht="13.5" customHeight="1">
+    <row r="20" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -26381,7 +27010,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="1:54" ht="13.5" customHeight="1">
+    <row r="21" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -26440,7 +27069,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="1:54" ht="13.5" customHeight="1">
+    <row r="22" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -26499,7 +27128,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="1:54" ht="13.5" customHeight="1">
+    <row r="23" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -26558,7 +27187,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="1:54" ht="13.5" customHeight="1">
+    <row r="24" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -26617,7 +27246,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="1:54" ht="13.5" customHeight="1">
+    <row r="25" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -26676,7 +27305,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="1:54" ht="13.5" customHeight="1">
+    <row r="26" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -26735,7 +27364,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="1:54" ht="13.5" customHeight="1">
+    <row r="27" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -26794,7 +27423,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="1:54" ht="13.5" customHeight="1">
+    <row r="28" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -26853,7 +27482,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="1:54" ht="13.5" customHeight="1">
+    <row r="29" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -26912,7 +27541,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="1:54" ht="13.5" customHeight="1">
+    <row r="30" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -26971,7 +27600,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="1:54" ht="13.5" customHeight="1">
+    <row r="31" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -27030,7 +27659,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="1:54" ht="13.5" customHeight="1">
+    <row r="32" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -27089,7 +27718,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="1:54" ht="13.5" customHeight="1">
+    <row r="33" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -27148,7 +27777,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="1:54" ht="13.5" customHeight="1">
+    <row r="34" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -27207,7 +27836,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="1:54" ht="13.5" customHeight="1">
+    <row r="35" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -27266,7 +27895,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="1:54" ht="13.5" customHeight="1">
+    <row r="36" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -27422,7 +28051,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="1:54" ht="15.75" customHeight="1">
+    <row r="37" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -27478,7 +28107,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="1:54" ht="12.75" customHeight="1">
+    <row r="38" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -27538,7 +28167,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="1:54" ht="12.75" customHeight="1">
+    <row r="39" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -27594,7 +28223,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="1:54" ht="12.75" customHeight="1">
+    <row r="40" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -27652,7 +28281,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="1:54" ht="12.75" customHeight="1">
+    <row r="41" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -27708,7 +28337,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="1:54" ht="12.75" customHeight="1">
+    <row r="42" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -27766,7 +28395,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="1:54" ht="12.75" customHeight="1">
+    <row r="43" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -27837,17 +28466,18 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -27860,7 +28490,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -27917,7 +28547,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="16.5" customHeight="1">
+    <row r="2" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -28052,7 +28682,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1">
+    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -28112,7 +28742,7 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1">
+    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -28172,7 +28802,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1">
+    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -28232,7 +28862,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -28292,7 +28922,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -28352,7 +28982,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -28412,7 +29042,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -28472,7 +29102,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -28532,7 +29162,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -28592,7 +29222,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -28652,7 +29282,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -28712,7 +29342,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -28772,7 +29402,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -28832,7 +29462,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -28892,7 +29522,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -28952,7 +29582,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -29012,7 +29642,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -29072,7 +29702,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -29132,7 +29762,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -29192,7 +29822,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -29252,7 +29882,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -29312,7 +29942,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -29372,7 +30002,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -29432,7 +30062,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -29492,7 +30122,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -29552,7 +30182,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -29612,7 +30242,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -29672,7 +30302,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -29732,7 +30362,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -29792,7 +30422,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -29852,7 +30482,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -29912,7 +30542,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -29972,7 +30602,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -30032,7 +30662,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="13.5" customHeight="1">
+    <row r="36" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -30192,7 +30822,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="15.75" customHeight="1">
+    <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -30249,7 +30879,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -30310,7 +30940,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -30367,7 +30997,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -30426,7 +31056,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -30483,7 +31113,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -30542,7 +31172,7 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="1:55" ht="12.75" customHeight="1">
+    <row r="43" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -30614,17 +31244,18 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -30636,7 +31267,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -30693,7 +31324,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="16.5" customHeight="1">
+    <row r="2" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -30828,7 +31459,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1">
+    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -30888,7 +31519,7 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1">
+    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -30948,7 +31579,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1">
+    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -31008,7 +31639,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -31068,7 +31699,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -31128,7 +31759,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -31188,7 +31819,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -31248,7 +31879,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -31308,7 +31939,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -31368,7 +31999,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -31428,7 +32059,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -31488,7 +32119,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -31548,7 +32179,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -31608,7 +32239,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -31668,7 +32299,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -31728,7 +32359,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -31788,7 +32419,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -31848,7 +32479,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -31908,7 +32539,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -31968,7 +32599,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -32028,7 +32659,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -32088,7 +32719,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -32148,7 +32779,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -32208,7 +32839,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -32268,7 +32899,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -32328,7 +32959,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -32388,7 +33019,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -32448,7 +33079,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -32508,7 +33139,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -32568,7 +33199,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -32628,7 +33259,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -32688,7 +33319,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -32748,7 +33379,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -32808,7 +33439,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="13.5" customHeight="1">
+    <row r="36" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -32968,7 +33599,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="15.75" customHeight="1">
+    <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -33025,7 +33656,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -33086,7 +33717,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -33143,7 +33774,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -33202,7 +33833,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -33259,7 +33890,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -33318,7 +33949,7 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="1:55" ht="12.75" customHeight="1">
+    <row r="43" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -33390,17 +34021,18 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -33412,7 +34044,7 @@
     <col min="45" max="54" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="13.5" customHeight="1">
+    <row r="1" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -33468,7 +34100,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="1:54" ht="16.5" customHeight="1">
+    <row r="2" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -33600,7 +34232,7 @@
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
     </row>
-    <row r="3" spans="1:54" ht="13.5" customHeight="1">
+    <row r="3" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -33659,7 +34291,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="1:54" ht="13.5" customHeight="1">
+    <row r="4" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -33718,7 +34350,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="1:54" ht="13.5" customHeight="1">
+    <row r="5" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -33777,7 +34409,7 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:54" ht="13.5" customHeight="1">
+    <row r="6" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -33836,7 +34468,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" ht="13.5" customHeight="1">
+    <row r="7" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -33895,7 +34527,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" ht="13.5" customHeight="1">
+    <row r="8" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -33954,7 +34586,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" ht="13.5" customHeight="1">
+    <row r="9" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -34013,7 +34645,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:54" ht="13.5" customHeight="1">
+    <row r="10" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -34072,7 +34704,7 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:54" ht="13.5" customHeight="1">
+    <row r="11" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -34131,7 +34763,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:54" ht="13.5" customHeight="1">
+    <row r="12" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -34190,7 +34822,7 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:54" ht="13.5" customHeight="1">
+    <row r="13" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -34249,7 +34881,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:54" ht="13.5" customHeight="1">
+    <row r="14" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -34308,7 +34940,7 @@
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
     </row>
-    <row r="15" spans="1:54" ht="13.5" customHeight="1">
+    <row r="15" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -34367,7 +34999,7 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="1:54" ht="13.5" customHeight="1">
+    <row r="16" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -34426,7 +35058,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="1:54" ht="13.5" customHeight="1">
+    <row r="17" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -34485,7 +35117,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="1:54" ht="13.5" customHeight="1">
+    <row r="18" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -34544,7 +35176,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="1:54" ht="13.5" customHeight="1">
+    <row r="19" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -34603,7 +35235,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="1:54" ht="13.5" customHeight="1">
+    <row r="20" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -34662,7 +35294,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="1:54" ht="13.5" customHeight="1">
+    <row r="21" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -34721,7 +35353,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="1:54" ht="13.5" customHeight="1">
+    <row r="22" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -34780,7 +35412,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="1:54" ht="13.5" customHeight="1">
+    <row r="23" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -34839,7 +35471,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="1:54" ht="13.5" customHeight="1">
+    <row r="24" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -34898,7 +35530,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="1:54" ht="13.5" customHeight="1">
+    <row r="25" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -34957,7 +35589,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="1:54" ht="13.5" customHeight="1">
+    <row r="26" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -35016,7 +35648,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="1:54" ht="13.5" customHeight="1">
+    <row r="27" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -35075,7 +35707,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="1:54" ht="13.5" customHeight="1">
+    <row r="28" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -35134,7 +35766,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="1:54" ht="13.5" customHeight="1">
+    <row r="29" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -35193,7 +35825,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="1:54" ht="13.5" customHeight="1">
+    <row r="30" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -35252,7 +35884,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="1:54" ht="13.5" customHeight="1">
+    <row r="31" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -35311,7 +35943,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="1:54" ht="13.5" customHeight="1">
+    <row r="32" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -35370,7 +36002,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="1:54" ht="13.5" customHeight="1">
+    <row r="33" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -35429,7 +36061,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="1:54" ht="13.5" customHeight="1">
+    <row r="34" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -35488,7 +36120,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="1:54" ht="13.5" customHeight="1">
+    <row r="35" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -35547,7 +36179,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="1:54" ht="13.5" customHeight="1">
+    <row r="36" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -35703,7 +36335,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="1:54" ht="15.75" customHeight="1">
+    <row r="37" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -35759,7 +36391,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="1:54" ht="12.75" customHeight="1">
+    <row r="38" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -35819,7 +36451,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="1:54" ht="12.75" customHeight="1">
+    <row r="39" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -35875,7 +36507,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="1:54" ht="12.75" customHeight="1">
+    <row r="40" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -35933,7 +36565,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="1:54" ht="12.75" customHeight="1">
+    <row r="41" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -35989,7 +36621,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="1:54" ht="12.75" customHeight="1">
+    <row r="42" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -36047,7 +36679,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="1:54" ht="12.75" customHeight="1">
+    <row r="43" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -36118,6 +36750,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/team/efforts/Recopilacion_Esfuerzos_Carlos.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Carlos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="570" windowWidth="20730" windowHeight="11760" activeTab="4"/>
@@ -35,7 +35,7 @@
     <definedName name="Print_Area" localSheetId="9">Oct!$A$1:$AS$37</definedName>
     <definedName name="Print_Area" localSheetId="8">Sep!$A$1:$AR$37</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="48">
   <si>
     <t>GP</t>
   </si>
@@ -429,9 +429,6 @@
     <t>Entrega de la propuesta del proyecto</t>
   </si>
   <si>
-    <t>Implementación base</t>
-  </si>
-  <si>
     <t>Diseño del esquema E/R de la BD</t>
   </si>
   <si>
@@ -443,12 +440,33 @@
   <si>
     <t>Práctica de auditoría</t>
   </si>
+  <si>
+    <t>54.2</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>Solucionar problemas con la reunión del Jueves 7 de mayo</t>
+  </si>
+  <si>
+    <t>Reunión con el profesor, auditoría externa</t>
+  </si>
+  <si>
+    <t>Implementación base 2ª iteración, ocultar modelo</t>
+  </si>
+  <si>
+    <t>Implementación base 1ª iteración, listar modelos</t>
+  </si>
+  <si>
+    <t>55.4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1740,17 +1758,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1771,14 +1779,11 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1808,10 +1813,10 @@
                   <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1837,7 +1842,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1897,27 +1901,17 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="77511296"/>
-        <c:axId val="77513472"/>
+        <c:axId val="85251968"/>
+        <c:axId val="48762880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77511296"/>
+        <c:axId val="85251968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1938,10 +1932,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1953,19 +1944,16 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77513472"/>
+        <c:crossAx val="48762880"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77513472"/>
+        <c:axId val="48762880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1995,11 +1983,8 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -2016,7 +2001,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77511296"/>
+        <c:crossAx val="85251968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2028,11 +2013,8 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2041,7 +2023,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2723,7 +2705,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2758,7 +2739,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2934,12 +2914,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BE43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -2952,7 +2932,7 @@
     <col min="47" max="57" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3011,7 +2991,7 @@
       <c r="BD1" s="1"/>
       <c r="BE1" s="1"/>
     </row>
-    <row r="2" spans="1:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -3150,7 +3130,7 @@
       <c r="BD2" s="2"/>
       <c r="BE2" s="2"/>
     </row>
-    <row r="3" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -3211,7 +3191,7 @@
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
     </row>
-    <row r="4" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -3272,7 +3252,7 @@
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
     </row>
-    <row r="5" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="62"/>
       <c r="C5" s="63"/>
@@ -3333,7 +3313,7 @@
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
     </row>
-    <row r="6" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="62"/>
       <c r="C6" s="63"/>
@@ -3392,7 +3372,7 @@
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
     </row>
-    <row r="7" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="62"/>
       <c r="C7" s="63"/>
@@ -3453,7 +3433,7 @@
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
     </row>
-    <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="62"/>
       <c r="C8" s="63"/>
@@ -3514,7 +3494,7 @@
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
     </row>
-    <row r="9" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="62"/>
       <c r="C9" s="63"/>
@@ -3575,7 +3555,7 @@
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
     </row>
-    <row r="10" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="62"/>
       <c r="C10" s="63"/>
@@ -3636,7 +3616,7 @@
       <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
     </row>
-    <row r="11" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="62"/>
       <c r="C11" s="63"/>
@@ -3697,7 +3677,7 @@
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
     </row>
-    <row r="12" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="62"/>
       <c r="C12" s="63"/>
@@ -3756,7 +3736,7 @@
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
     </row>
-    <row r="13" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="62"/>
       <c r="C13" s="63"/>
@@ -3815,7 +3795,7 @@
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
     </row>
-    <row r="14" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="62"/>
       <c r="C14" s="63"/>
@@ -3874,7 +3854,7 @@
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
     </row>
-    <row r="15" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="62"/>
       <c r="C15" s="63"/>
@@ -3933,7 +3913,7 @@
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
     </row>
-    <row r="16" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="67"/>
       <c r="C16" s="69"/>
@@ -3992,7 +3972,7 @@
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
     </row>
-    <row r="17" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="67"/>
       <c r="C17" s="69"/>
@@ -4051,7 +4031,7 @@
       <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
     </row>
-    <row r="18" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -4110,7 +4090,7 @@
       <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
     </row>
-    <row r="19" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -4169,7 +4149,7 @@
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
     </row>
-    <row r="20" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -4228,7 +4208,7 @@
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
     </row>
-    <row r="21" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -4287,7 +4267,7 @@
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
     </row>
-    <row r="22" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -4346,7 +4326,7 @@
       <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
     </row>
-    <row r="23" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -4405,7 +4385,7 @@
       <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
     </row>
-    <row r="24" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:57" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -4464,7 +4444,7 @@
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
     </row>
-    <row r="25" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -4523,7 +4503,7 @@
       <c r="BD25" s="1"/>
       <c r="BE25" s="1"/>
     </row>
-    <row r="26" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:57" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -4582,7 +4562,7 @@
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
     </row>
-    <row r="27" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:57" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -4641,7 +4621,7 @@
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
     </row>
-    <row r="28" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:57" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -4700,7 +4680,7 @@
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
     </row>
-    <row r="29" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -4759,7 +4739,7 @@
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
     </row>
-    <row r="30" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:57" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -4818,7 +4798,7 @@
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
     </row>
-    <row r="31" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:57" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -4877,7 +4857,7 @@
       <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
     </row>
-    <row r="32" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:57" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -4936,7 +4916,7 @@
       <c r="BD32" s="1"/>
       <c r="BE32" s="1"/>
     </row>
-    <row r="33" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:57" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -4995,7 +4975,7 @@
       <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
     </row>
-    <row r="34" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:57" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -5054,7 +5034,7 @@
       <c r="BD34" s="1"/>
       <c r="BE34" s="1"/>
     </row>
-    <row r="35" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:57" ht="14.25" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -5113,7 +5093,7 @@
       <c r="BD35" s="1"/>
       <c r="BE35" s="1"/>
     </row>
-    <row r="36" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:57" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5179,7 +5159,7 @@
       <c r="BD36" s="1"/>
       <c r="BE36" s="1"/>
     </row>
-    <row r="37" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:57" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -5238,7 +5218,7 @@
       <c r="BD37" s="1"/>
       <c r="BE37" s="1"/>
     </row>
-    <row r="38" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:57" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5301,7 +5281,7 @@
       <c r="BD38" s="1"/>
       <c r="BE38" s="1"/>
     </row>
-    <row r="39" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:57" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5360,7 +5340,7 @@
       <c r="BD39" s="1"/>
       <c r="BE39" s="1"/>
     </row>
-    <row r="40" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:57" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5421,7 +5401,7 @@
       <c r="BD40" s="1"/>
       <c r="BE40" s="1"/>
     </row>
-    <row r="41" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:57" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5480,7 +5460,7 @@
       <c r="BD41" s="1"/>
       <c r="BE41" s="1"/>
     </row>
-    <row r="42" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:57" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -5541,7 +5521,7 @@
       <c r="BD42" s="1"/>
       <c r="BE42" s="1"/>
     </row>
-    <row r="43" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:57" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -5621,12 +5601,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -5638,7 +5618,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5695,7 +5675,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -5830,7 +5810,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -5890,7 +5870,7 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -5950,7 +5930,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -6010,7 +5990,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -6070,7 +6050,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -6130,7 +6110,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -6190,7 +6170,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -6250,7 +6230,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -6310,7 +6290,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -6370,7 +6350,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -6430,7 +6410,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -6490,7 +6470,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -6550,7 +6530,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -6610,7 +6590,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -6670,7 +6650,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -6730,7 +6710,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -6790,7 +6770,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -6850,7 +6830,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -6910,7 +6890,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -6970,7 +6950,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -7030,7 +7010,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -7090,7 +7070,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -7150,7 +7130,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -7210,7 +7190,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -7270,7 +7250,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -7330,7 +7310,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -7390,7 +7370,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -7450,7 +7430,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -7510,7 +7490,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -7570,7 +7550,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -7630,7 +7610,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -7690,7 +7670,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -7750,7 +7730,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -7810,7 +7790,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -7970,7 +7950,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:55" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -8027,7 +8007,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -8088,7 +8068,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -8145,7 +8125,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -8204,7 +8184,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -8261,7 +8241,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -8320,7 +8300,7 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:55" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -8377,7 +8357,7 @@
       <c r="BB43" s="1"/>
       <c r="BC43" s="1"/>
     </row>
-    <row r="44" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:55" ht="12.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -8455,12 +8435,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BB44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -8472,7 +8452,7 @@
     <col min="45" max="54" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8528,7 +8508,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -8660,7 +8640,7 @@
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
     </row>
-    <row r="3" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -8719,7 +8699,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -8778,7 +8758,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -8837,7 +8817,7 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -8896,7 +8876,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -8955,7 +8935,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -9014,7 +8994,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -9073,7 +9053,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -9132,7 +9112,7 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -9191,7 +9171,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -9250,7 +9230,7 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -9309,7 +9289,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -9368,7 +9348,7 @@
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
     </row>
-    <row r="15" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -9427,7 +9407,7 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -9486,7 +9466,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -9545,7 +9525,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -9604,7 +9584,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -9663,7 +9643,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -9722,7 +9702,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -9781,7 +9761,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -9840,7 +9820,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -9899,7 +9879,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -9958,7 +9938,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -10017,7 +9997,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -10076,7 +10056,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -10135,7 +10115,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -10194,7 +10174,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -10253,7 +10233,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -10312,7 +10292,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -10371,7 +10351,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -10430,7 +10410,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -10489,7 +10469,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -10548,7 +10528,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -10607,7 +10587,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:54" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -10763,7 +10743,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:54" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -10819,7 +10799,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -10879,7 +10859,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:54" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -10935,7 +10915,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:54" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -10993,7 +10973,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:54" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -11049,7 +11029,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:54" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -11107,7 +11087,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:54" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -11163,7 +11143,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:54" ht="12.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -11240,12 +11220,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -11257,7 +11237,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11314,7 +11294,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -11449,7 +11429,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -11509,7 +11489,7 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -11569,7 +11549,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -11629,7 +11609,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -11689,7 +11669,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -11749,7 +11729,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -11809,7 +11789,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -11869,7 +11849,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -11929,7 +11909,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -11989,7 +11969,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -12049,7 +12029,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -12109,7 +12089,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -12169,7 +12149,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -12229,7 +12209,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -12289,7 +12269,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -12349,7 +12329,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -12409,7 +12389,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -12469,7 +12449,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -12529,7 +12509,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -12589,7 +12569,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -12649,7 +12629,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -12709,7 +12689,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -12769,7 +12749,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -12829,7 +12809,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -12889,7 +12869,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -12949,7 +12929,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -13009,7 +12989,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -13069,7 +13049,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -13129,7 +13109,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -13189,7 +13169,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -13249,7 +13229,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -13309,7 +13289,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -13369,7 +13349,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -13429,7 +13409,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -13589,7 +13569,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:55" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -13646,7 +13626,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -13707,7 +13687,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -13764,7 +13744,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -13823,7 +13803,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -13880,7 +13860,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -13939,7 +13919,7 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:55" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -13996,7 +13976,7 @@
       <c r="BB43" s="1"/>
       <c r="BC43" s="1"/>
     </row>
-    <row r="44" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:55" ht="12.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -14074,12 +14054,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3.7109375" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -14088,7 +14068,7 @@
     <col min="20" max="29" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="21" customHeight="1">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -14119,7 +14099,7 @@
       <c r="AB1" s="9"/>
       <c r="AC1" s="9"/>
     </row>
-    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -14152,7 +14132,7 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
     </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -14185,7 +14165,7 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
     </row>
-    <row r="4" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="21" customHeight="1">
       <c r="A4" s="108"/>
       <c r="B4" s="108"/>
       <c r="C4" s="108"/>
@@ -14216,7 +14196,7 @@
       <c r="AB4" s="108"/>
       <c r="AC4" s="108"/>
     </row>
-    <row r="5" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="16.5" customHeight="1">
       <c r="A5" s="57"/>
       <c r="B5" s="57"/>
       <c r="C5" s="57"/>
@@ -14275,7 +14255,7 @@
       <c r="AB5" s="108"/>
       <c r="AC5" s="108"/>
     </row>
-    <row r="6" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="16.5" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -14286,7 +14266,7 @@
       </c>
       <c r="G6" s="114">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>14.75</v>
+        <v>16.75</v>
       </c>
       <c r="H6" s="116">
         <f>Ene!G36</f>
@@ -14302,11 +14282,11 @@
       </c>
       <c r="K6" s="116">
         <f>Abr!G36</f>
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L6" s="116">
         <f>May!G36</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M6" s="116">
         <f>Jun!G36</f>
@@ -14347,7 +14327,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
     </row>
-    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="15.75" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -14419,7 +14399,7 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
     </row>
-    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="15.75" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -14450,7 +14430,7 @@
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
     </row>
-    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="15.75" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -14481,7 +14461,7 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
     </row>
-    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="15.75" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -14512,7 +14492,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
     </row>
-    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="15.75" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -14543,7 +14523,7 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
     </row>
-    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="15.75" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -14574,7 +14554,7 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
     </row>
-    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="15.75" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -14605,7 +14585,7 @@
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
     </row>
-    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="15.75" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -14636,7 +14616,7 @@
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
     </row>
-    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="15.75" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -14667,7 +14647,7 @@
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
     </row>
-    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="15.75" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -14698,7 +14678,7 @@
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
     </row>
-    <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="15.75" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -14729,7 +14709,7 @@
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
     </row>
-    <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="15.75" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -14760,7 +14740,7 @@
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
     </row>
-    <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="15.75" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -14791,7 +14771,7 @@
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
     </row>
-    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="15.75" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -14822,25 +14802,25 @@
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
     </row>
-    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:29" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="G6:G7">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
@@ -14858,14 +14838,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AZ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -14877,7 +14857,7 @@
     <col min="43" max="52" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -14931,7 +14911,7 @@
       <c r="AY1" s="1"/>
       <c r="AZ1" s="1"/>
     </row>
-    <row r="2" spans="1:52" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" ht="16.5" customHeight="1" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -15057,7 +15037,7 @@
       <c r="AY2" s="2"/>
       <c r="AZ2" s="2"/>
     </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="21">
         <v>84</v>
@@ -15126,7 +15106,7 @@
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
     </row>
-    <row r="4" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="21">
         <v>84</v>
@@ -15195,7 +15175,7 @@
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
     </row>
-    <row r="5" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="21">
         <v>84</v>
@@ -15264,7 +15244,7 @@
       <c r="AY5" s="1"/>
       <c r="AZ5" s="1"/>
     </row>
-    <row r="6" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -15321,7 +15301,7 @@
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
     </row>
-    <row r="7" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -15378,7 +15358,7 @@
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
     </row>
-    <row r="8" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -15435,7 +15415,7 @@
       <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
     </row>
-    <row r="9" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -15492,7 +15472,7 @@
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
     </row>
-    <row r="10" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -15549,7 +15529,7 @@
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
     </row>
-    <row r="11" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -15606,7 +15586,7 @@
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
     </row>
-    <row r="12" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -15663,7 +15643,7 @@
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
     </row>
-    <row r="13" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -15720,7 +15700,7 @@
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
     </row>
-    <row r="14" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -15777,7 +15757,7 @@
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
     </row>
-    <row r="15" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -15834,7 +15814,7 @@
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
     </row>
-    <row r="16" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -15891,7 +15871,7 @@
       <c r="AY16" s="1"/>
       <c r="AZ16" s="1"/>
     </row>
-    <row r="17" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -15948,7 +15928,7 @@
       <c r="AY17" s="1"/>
       <c r="AZ17" s="1"/>
     </row>
-    <row r="18" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -16005,7 +15985,7 @@
       <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
     </row>
-    <row r="19" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -16062,7 +16042,7 @@
       <c r="AY19" s="1"/>
       <c r="AZ19" s="1"/>
     </row>
-    <row r="20" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -16119,7 +16099,7 @@
       <c r="AY20" s="1"/>
       <c r="AZ20" s="1"/>
     </row>
-    <row r="21" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -16176,7 +16156,7 @@
       <c r="AY21" s="1"/>
       <c r="AZ21" s="1"/>
     </row>
-    <row r="22" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -16233,7 +16213,7 @@
       <c r="AY22" s="1"/>
       <c r="AZ22" s="1"/>
     </row>
-    <row r="23" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -16290,7 +16270,7 @@
       <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
     </row>
-    <row r="24" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -16347,7 +16327,7 @@
       <c r="AY24" s="1"/>
       <c r="AZ24" s="1"/>
     </row>
-    <row r="25" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -16404,7 +16384,7 @@
       <c r="AY25" s="1"/>
       <c r="AZ25" s="1"/>
     </row>
-    <row r="26" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:52" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -16461,7 +16441,7 @@
       <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
     </row>
-    <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -16518,7 +16498,7 @@
       <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
     </row>
-    <row r="28" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:52" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -16575,7 +16555,7 @@
       <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
     </row>
-    <row r="29" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:52" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -16632,7 +16612,7 @@
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
     </row>
-    <row r="30" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:52" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -16689,7 +16669,7 @@
       <c r="AY30" s="1"/>
       <c r="AZ30" s="1"/>
     </row>
-    <row r="31" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:52" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -16746,7 +16726,7 @@
       <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
     </row>
-    <row r="32" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:52" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="26"/>
       <c r="C32" s="27"/>
@@ -16803,7 +16783,7 @@
       <c r="AY32" s="1"/>
       <c r="AZ32" s="1"/>
     </row>
-    <row r="33" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:52" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -16951,7 +16931,7 @@
       <c r="AY33" s="1"/>
       <c r="AZ33" s="1"/>
     </row>
-    <row r="34" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:52" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -17005,7 +16985,7 @@
       <c r="AY34" s="1"/>
       <c r="AZ34" s="1"/>
     </row>
-    <row r="35" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:52" ht="12.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -17063,7 +17043,7 @@
       <c r="AY35" s="1"/>
       <c r="AZ35" s="1"/>
     </row>
-    <row r="36" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:52" ht="12.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -17117,7 +17097,7 @@
       <c r="AY36" s="1"/>
       <c r="AZ36" s="1"/>
     </row>
-    <row r="37" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:52" ht="12.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -17173,7 +17153,7 @@
       <c r="AY37" s="1"/>
       <c r="AZ37" s="1"/>
     </row>
-    <row r="38" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:52" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -17227,7 +17207,7 @@
       <c r="AY38" s="1"/>
       <c r="AZ38" s="1"/>
     </row>
-    <row r="39" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:52" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -17283,7 +17263,7 @@
       <c r="AY39" s="1"/>
       <c r="AZ39" s="1"/>
     </row>
-    <row r="40" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:52" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -17358,14 +17338,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -17377,7 +17357,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -17434,7 +17414,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -17569,7 +17549,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="21">
         <v>84</v>
@@ -17645,7 +17625,7 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="21">
         <v>84</v>
@@ -17717,7 +17697,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="21">
         <v>84</v>
@@ -17789,7 +17769,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="21">
         <v>84</v>
@@ -17861,7 +17841,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="21">
         <v>84</v>
@@ -17876,7 +17856,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="15">
         <f t="shared" si="0"/>
@@ -17933,7 +17913,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21">
         <v>84</v>
@@ -18005,7 +17985,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -18065,7 +18045,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -18125,7 +18105,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -18185,7 +18165,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -18245,7 +18225,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -18305,7 +18285,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -18365,7 +18345,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -18425,7 +18405,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -18485,7 +18465,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -18545,7 +18525,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -18605,7 +18585,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -18665,7 +18645,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -18725,7 +18705,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -18785,7 +18765,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -18845,7 +18825,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -18905,7 +18885,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -18965,7 +18945,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -19025,7 +19005,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -19085,7 +19065,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -19145,7 +19125,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -19205,7 +19185,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -19265,7 +19245,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -19325,7 +19305,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -19385,7 +19365,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -19445,7 +19425,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -19505,7 +19485,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="26"/>
       <c r="C34" s="27"/>
@@ -19565,7 +19545,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -19725,7 +19705,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -19782,7 +19762,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:55" ht="12.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -19843,7 +19823,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -19900,7 +19880,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -19959,7 +19939,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -20016,7 +19996,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -20075,7 +20055,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -20153,16 +20133,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BB43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="3" customWidth="1"/>
+    <col min="1" max="3" width="3" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
     <col min="7" max="7" width="5.140625" customWidth="1"/>
     <col min="8" max="37" width="3.28515625" customWidth="1"/>
@@ -20172,7 +20154,7 @@
     <col min="45" max="54" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -20228,7 +20210,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -20360,7 +20342,7 @@
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
     </row>
-    <row r="3" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="21">
         <v>84</v>
@@ -20431,7 +20413,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="21">
         <v>84</v>
@@ -20439,14 +20421,14 @@
       <c r="C4" s="23">
         <v>2</v>
       </c>
-      <c r="D4" s="23">
-        <v>54</v>
+      <c r="D4" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="E4" s="24">
         <v>0</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" ref="G4:G36" si="1">SUM(H4:AK4)</f>
@@ -20502,7 +20484,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="21">
         <v>84</v>
@@ -20510,18 +20492,18 @@
       <c r="C5" s="23">
         <v>2</v>
       </c>
-      <c r="D5" s="23">
-        <v>54</v>
+      <c r="D5" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="E5" s="24">
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -20535,7 +20517,7 @@
       <c r="Q5" s="23"/>
       <c r="R5" s="19"/>
       <c r="S5" s="19">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T5" s="23"/>
       <c r="U5" s="23"/>
@@ -20573,7 +20555,7 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="21">
         <v>84</v>
@@ -20588,7 +20570,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="15">
         <f t="shared" si="1"/>
@@ -20644,7 +20626,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="21">
         <v>84</v>
@@ -20659,7 +20641,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="15">
         <f t="shared" si="1"/>
@@ -20715,7 +20697,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21">
         <v>84</v>
@@ -20730,7 +20712,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="15">
         <f t="shared" si="1"/>
@@ -20786,7 +20768,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -20845,7 +20827,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -20904,7 +20886,7 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -20963,7 +20945,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -21022,7 +21004,7 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -21081,7 +21063,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -21140,7 +21122,7 @@
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
     </row>
-    <row r="15" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -21199,7 +21181,7 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -21258,7 +21240,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -21317,7 +21299,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -21376,7 +21358,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -21435,7 +21417,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -21494,7 +21476,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -21553,7 +21535,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -21612,7 +21594,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -21671,7 +21653,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -21730,7 +21712,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -21789,7 +21771,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -21848,7 +21830,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -21907,7 +21889,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -21966,7 +21948,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -22025,7 +22007,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -22084,7 +22066,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -22143,7 +22125,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -22202,7 +22184,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -22261,7 +22243,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -22320,7 +22302,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -22379,7 +22361,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:54" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -22390,7 +22372,7 @@
       </c>
       <c r="G36" s="36">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" ref="H36:AK36" si="2">SUM(H3:H35)</f>
@@ -22438,7 +22420,7 @@
       </c>
       <c r="S36" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T36" s="72">
         <f t="shared" si="2"/>
@@ -22535,7 +22517,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:54" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -22591,7 +22573,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -22651,7 +22633,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:54" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -22707,7 +22689,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:54" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -22765,7 +22747,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:54" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -22821,7 +22803,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:54" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -22879,7 +22861,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:54" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -22966,14 +22948,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="3" customWidth="1"/>
+    <col min="1" max="3" width="3" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
     <col min="7" max="7" width="5.140625" customWidth="1"/>
     <col min="8" max="38" width="3.28515625" customWidth="1"/>
@@ -22983,7 +22969,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -23040,7 +23026,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -23175,13 +23161,23 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="21">
+        <v>84</v>
+      </c>
+      <c r="C3" s="23">
+        <v>2</v>
+      </c>
+      <c r="D3" s="23">
+        <v>40</v>
+      </c>
+      <c r="E3" s="24">
+        <v>0</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="G3" s="15">
         <f t="shared" ref="G3:G36" si="0">SUM(H3:AL3)</f>
         <v>0</v>
@@ -23190,7 +23186,9 @@
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
+      <c r="L3" s="48" t="s">
+        <v>42</v>
+      </c>
       <c r="M3" s="48"/>
       <c r="N3" s="48"/>
       <c r="O3" s="48"/>
@@ -23235,16 +23233,26 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="21">
+        <v>84</v>
+      </c>
+      <c r="C4" s="23">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23">
+        <v>44</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="G4" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
@@ -23252,7 +23260,9 @@
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
       <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="N4" s="23">
+        <v>1</v>
+      </c>
       <c r="O4" s="23"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
@@ -23295,16 +23305,26 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="21">
+        <v>84</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="24">
+        <v>0</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>45</v>
+      </c>
       <c r="G5" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -23314,7 +23334,9 @@
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
       <c r="O5" s="23"/>
-      <c r="P5" s="19"/>
+      <c r="P5" s="19">
+        <v>0.5</v>
+      </c>
       <c r="Q5" s="19"/>
       <c r="R5" s="23"/>
       <c r="S5" s="23"/>
@@ -23355,7 +23377,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -23415,7 +23437,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -23475,7 +23497,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -23535,7 +23557,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -23595,7 +23617,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -23655,7 +23677,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -23715,7 +23737,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -23775,7 +23797,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -23835,7 +23857,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -23895,7 +23917,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -23955,7 +23977,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -24015,7 +24037,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -24075,7 +24097,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -24135,7 +24157,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -24195,7 +24217,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -24255,7 +24277,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -24315,7 +24337,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -24375,7 +24397,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -24435,7 +24457,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -24495,7 +24517,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -24555,7 +24577,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -24615,7 +24637,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -24675,7 +24697,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -24735,7 +24757,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -24795,7 +24817,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -24855,7 +24877,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -24915,7 +24937,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -24975,7 +24997,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -25035,7 +25057,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -25095,7 +25117,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -25155,7 +25177,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -25166,7 +25188,7 @@
       </c>
       <c r="G36" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" ref="H36:AL36" si="1">SUM(H3:H35)</f>
@@ -25194,7 +25216,7 @@
       </c>
       <c r="N36" s="72">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="72">
         <f t="shared" si="1"/>
@@ -25202,7 +25224,7 @@
       </c>
       <c r="P36" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q36" s="37">
         <f t="shared" si="1"/>
@@ -25315,7 +25337,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:55" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -25372,7 +25394,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -25433,7 +25455,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -25490,7 +25512,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -25549,7 +25571,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -25606,7 +25628,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -25665,7 +25687,7 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:55" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -25743,12 +25765,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BB43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -25760,7 +25782,7 @@
     <col min="45" max="54" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -25816,7 +25838,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -25948,7 +25970,7 @@
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
     </row>
-    <row r="3" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -26007,7 +26029,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -26066,7 +26088,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -26125,7 +26147,7 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -26184,7 +26206,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -26243,7 +26265,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -26302,7 +26324,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -26361,7 +26383,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -26420,7 +26442,7 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -26479,7 +26501,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -26538,7 +26560,7 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -26597,7 +26619,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -26656,7 +26678,7 @@
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
     </row>
-    <row r="15" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -26715,7 +26737,7 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -26774,7 +26796,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -26833,7 +26855,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -26892,7 +26914,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -26951,7 +26973,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -27010,7 +27032,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -27069,7 +27091,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -27128,7 +27150,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -27187,7 +27209,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -27246,7 +27268,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -27305,7 +27327,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -27364,7 +27386,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -27423,7 +27445,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -27482,7 +27504,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -27541,7 +27563,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -27600,7 +27622,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -27659,7 +27681,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -27718,7 +27740,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -27777,7 +27799,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -27836,7 +27858,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -27895,7 +27917,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:54" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -28051,7 +28073,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:54" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -28107,7 +28129,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -28167,7 +28189,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:54" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -28223,7 +28245,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:54" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -28281,7 +28303,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:54" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -28337,7 +28359,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:54" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -28395,7 +28417,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:54" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -28472,12 +28494,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -28490,7 +28512,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -28547,7 +28569,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -28682,7 +28704,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -28742,7 +28764,7 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -28802,7 +28824,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -28862,7 +28884,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -28922,7 +28944,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -28982,7 +29004,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -29042,7 +29064,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -29102,7 +29124,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -29162,7 +29184,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -29222,7 +29244,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -29282,7 +29304,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -29342,7 +29364,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -29402,7 +29424,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -29462,7 +29484,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -29522,7 +29544,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -29582,7 +29604,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -29642,7 +29664,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -29702,7 +29724,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -29762,7 +29784,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -29822,7 +29844,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -29882,7 +29904,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -29942,7 +29964,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -30002,7 +30024,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -30062,7 +30084,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -30122,7 +30144,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -30182,7 +30204,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -30242,7 +30264,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -30302,7 +30324,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -30362,7 +30384,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -30422,7 +30444,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -30482,7 +30504,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -30542,7 +30564,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -30602,7 +30624,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -30662,7 +30684,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -30822,7 +30844,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:55" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -30879,7 +30901,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -30940,7 +30962,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -30997,7 +31019,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -31056,7 +31078,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -31113,7 +31135,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -31172,7 +31194,7 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:55" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -31250,12 +31272,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -31267,7 +31289,7 @@
     <col min="46" max="55" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -31324,7 +31346,7 @@
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -31459,7 +31481,7 @@
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -31519,7 +31541,7 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -31579,7 +31601,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -31639,7 +31661,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -31699,7 +31721,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -31759,7 +31781,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -31819,7 +31841,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -31879,7 +31901,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -31939,7 +31961,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -31999,7 +32021,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -32059,7 +32081,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -32119,7 +32141,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -32179,7 +32201,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -32239,7 +32261,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -32299,7 +32321,7 @@
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -32359,7 +32381,7 @@
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -32419,7 +32441,7 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -32479,7 +32501,7 @@
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -32539,7 +32561,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -32599,7 +32621,7 @@
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -32659,7 +32681,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -32719,7 +32741,7 @@
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -32779,7 +32801,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -32839,7 +32861,7 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
-    <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -32899,7 +32921,7 @@
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
     </row>
-    <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -32959,7 +32981,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
     </row>
-    <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -33019,7 +33041,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -33079,7 +33101,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -33139,7 +33161,7 @@
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
     </row>
-    <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -33199,7 +33221,7 @@
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
     </row>
-    <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -33259,7 +33281,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -33319,7 +33341,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -33379,7 +33401,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -33439,7 +33461,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -33599,7 +33621,7 @@
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
     </row>
-    <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:55" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -33656,7 +33678,7 @@
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
     </row>
-    <row r="38" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -33717,7 +33739,7 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
     </row>
-    <row r="39" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -33774,7 +33796,7 @@
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
     </row>
-    <row r="40" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:55" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -33833,7 +33855,7 @@
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
-    <row r="41" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -33890,7 +33912,7 @@
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
     </row>
-    <row r="42" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -33949,7 +33971,7 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:55" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -34027,12 +34049,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BB43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -34044,7 +34066,7 @@
     <col min="45" max="54" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -34100,7 +34122,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -34232,7 +34254,7 @@
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
     </row>
-    <row r="3" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="17"/>
       <c r="C3" s="48"/>
@@ -34291,7 +34313,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" ht="13.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="21"/>
       <c r="C4" s="23"/>
@@ -34350,7 +34372,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" ht="13.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="23"/>
@@ -34409,7 +34431,7 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
@@ -34468,7 +34490,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="21"/>
       <c r="C7" s="23"/>
@@ -34527,7 +34549,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="23"/>
@@ -34586,7 +34608,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
@@ -34645,7 +34667,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23"/>
@@ -34704,7 +34726,7 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -34763,7 +34785,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23"/>
@@ -34822,7 +34844,7 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
@@ -34881,7 +34903,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23"/>
@@ -34940,7 +34962,7 @@
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
     </row>
-    <row r="15" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
@@ -34999,7 +35021,7 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23"/>
@@ -35058,7 +35080,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23"/>
@@ -35117,7 +35139,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" ht="13.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
@@ -35176,7 +35198,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" ht="13.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -35235,7 +35257,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" ht="13.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
@@ -35294,7 +35316,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" ht="13.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
@@ -35353,7 +35375,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" ht="13.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23"/>
@@ -35412,7 +35434,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" ht="13.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="23"/>
@@ -35471,7 +35493,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="23"/>
@@ -35530,7 +35552,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
@@ -35589,7 +35611,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" ht="13.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
@@ -35648,7 +35670,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
@@ -35707,7 +35729,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -35766,7 +35788,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
@@ -35825,7 +35847,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -35884,7 +35906,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23"/>
@@ -35943,7 +35965,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
@@ -36002,7 +36024,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="23"/>
@@ -36061,7 +36083,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
@@ -36120,7 +36142,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -36179,7 +36201,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:54" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -36335,7 +36357,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:54" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -36391,7 +36413,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -36451,7 +36473,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:54" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -36507,7 +36529,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:54" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -36565,7 +36587,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:54" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -36621,7 +36643,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:54" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -36679,7 +36701,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:54" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>

--- a/team/efforts/Recopilacion_Esfuerzos_Carlos.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Carlos.xlsx
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="47">
   <si>
     <t>GP</t>
   </si>
@@ -442,9 +442,6 @@
   </si>
   <si>
     <t>54.2</t>
-  </si>
-  <si>
-    <t>0.25</t>
   </si>
   <si>
     <t>Solucionar problemas con la reunión del Jueves 7 de mayo</t>
@@ -1816,7 +1813,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1902,13 +1899,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="85251968"/>
-        <c:axId val="48762880"/>
+        <c:axId val="103716736"/>
+        <c:axId val="103735296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85251968"/>
+        <c:axId val="103716736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1944,13 +1940,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48762880"/>
+        <c:crossAx val="103735296"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48762880"/>
+        <c:axId val="103735296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2001,7 +1997,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85251968"/>
+        <c:crossAx val="103716736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2023,7 +2019,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14266,7 +14262,7 @@
       </c>
       <c r="G6" s="114">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>16.75</v>
+        <v>17.75</v>
       </c>
       <c r="H6" s="116">
         <f>Ene!G36</f>
@@ -14286,7 +14282,7 @@
       </c>
       <c r="L6" s="116">
         <f>May!G36</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="M6" s="116">
         <f>Jun!G36</f>
@@ -20428,7 +20424,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" ref="G4:G36" si="1">SUM(H4:AK4)</f>
@@ -20499,7 +20495,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" si="1"/>
@@ -22952,7 +22948,7 @@
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -23176,18 +23172,18 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="15">
         <f t="shared" ref="G3:G36" si="0">SUM(H3:AL3)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="48"/>
-      <c r="L3" s="48" t="s">
-        <v>42</v>
+      <c r="L3" s="48">
+        <v>0.25</v>
       </c>
       <c r="M3" s="48"/>
       <c r="N3" s="48"/>
@@ -23248,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="0"/>
@@ -23314,17 +23310,17 @@
         <v>2</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="24">
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -23335,7 +23331,7 @@
       <c r="N5" s="23"/>
       <c r="O5" s="23"/>
       <c r="P5" s="19">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q5" s="19"/>
       <c r="R5" s="23"/>
@@ -25188,7 +25184,7 @@
       </c>
       <c r="G36" s="36">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" ref="H36:AL36" si="1">SUM(H3:H35)</f>
@@ -25208,7 +25204,7 @@
       </c>
       <c r="L36" s="72">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M36" s="72">
         <f t="shared" si="1"/>
@@ -25224,7 +25220,7 @@
       </c>
       <c r="P36" s="37">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q36" s="37">
         <f t="shared" si="1"/>

--- a/team/efforts/Recopilacion_Esfuerzos_Carlos.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Carlos.xlsx
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="49">
   <si>
     <t>GP</t>
   </si>
@@ -457,6 +457,12 @@
   </si>
   <si>
     <t>55.4</t>
+  </si>
+  <si>
+    <t>Reunión para repartir tareas</t>
+  </si>
+  <si>
+    <t>Elaboración del tríptico para la presentación</t>
   </si>
 </sst>
 </file>
@@ -1771,11 +1777,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="es-ES"/>
               <a:t>Gráfica Esfuerzos totales/Formación</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1813,7 +1821,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5</c:v>
+                  <c:v>5.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1900,11 +1908,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="103716736"/>
-        <c:axId val="103735296"/>
+        <c:axId val="94610176"/>
+        <c:axId val="94612480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103716736"/>
+        <c:axId val="94610176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,11 +1931,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="es-ES"/>
                   <a:t>Mes</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
@@ -1940,13 +1950,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103735296"/>
+        <c:crossAx val="94612480"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103735296"/>
+        <c:axId val="94612480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1974,11 +1984,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="es-ES"/>
                   <a:t>Horas</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1997,7 +2009,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103716736"/>
+        <c:crossAx val="94610176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2009,6 +2021,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
@@ -2019,7 +2032,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14262,7 +14275,7 @@
       </c>
       <c r="G6" s="114">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>17.75</v>
+        <v>21</v>
       </c>
       <c r="H6" s="116">
         <f>Ene!G36</f>
@@ -14282,7 +14295,7 @@
       </c>
       <c r="L6" s="116">
         <f>May!G36</f>
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="M6" s="116">
         <f>Jun!G36</f>
@@ -17338,7 +17351,7 @@
   <dimension ref="A1:BC42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="AR3" sqref="AR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -22948,7 +22961,7 @@
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -23375,14 +23388,24 @@
     </row>
     <row r="6" spans="1:55" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="21">
+        <v>84</v>
+      </c>
+      <c r="C6" s="23">
+        <v>2</v>
+      </c>
+      <c r="D6" s="23">
+        <v>53</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>47</v>
+      </c>
       <c r="G6" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
@@ -23397,7 +23420,9 @@
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
+      <c r="U6" s="23">
+        <v>0.75</v>
+      </c>
       <c r="V6" s="23"/>
       <c r="W6" s="19"/>
       <c r="X6" s="19"/>
@@ -23435,14 +23460,24 @@
     </row>
     <row r="7" spans="1:55" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="21">
+        <v>84</v>
+      </c>
+      <c r="C7" s="23">
+        <v>2</v>
+      </c>
+      <c r="D7" s="23">
+        <v>58</v>
+      </c>
+      <c r="E7" s="24">
+        <v>2</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>48</v>
+      </c>
       <c r="G7" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -23458,7 +23493,9 @@
       <c r="S7" s="23"/>
       <c r="T7" s="23"/>
       <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
+      <c r="V7" s="23">
+        <v>0.5</v>
+      </c>
       <c r="W7" s="19"/>
       <c r="X7" s="19"/>
       <c r="Y7" s="23"/>
@@ -23495,14 +23532,24 @@
     </row>
     <row r="8" spans="1:55" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="21">
+        <v>84</v>
+      </c>
+      <c r="C8" s="23">
+        <v>2</v>
+      </c>
+      <c r="D8" s="23">
+        <v>58</v>
+      </c>
+      <c r="E8" s="24">
+        <v>3</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>48</v>
+      </c>
       <c r="G8" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
@@ -23519,7 +23566,9 @@
       <c r="T8" s="23"/>
       <c r="U8" s="23"/>
       <c r="V8" s="23"/>
-      <c r="W8" s="19"/>
+      <c r="W8" s="19">
+        <v>2</v>
+      </c>
       <c r="X8" s="19"/>
       <c r="Y8" s="23"/>
       <c r="Z8" s="23"/>
@@ -25184,7 +25233,7 @@
       </c>
       <c r="G36" s="36">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" ref="H36:AL36" si="1">SUM(H3:H35)</f>
@@ -25240,15 +25289,15 @@
       </c>
       <c r="U36" s="72">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="V36" s="72">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W36" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X36" s="37">
         <f t="shared" si="1"/>

--- a/team/efforts/Recopilacion_Esfuerzos_Carlos.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Carlos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="570" windowWidth="20730" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="270" yWindow="570" windowWidth="20730" windowHeight="11760" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Ene" sheetId="1" r:id="rId1"/>
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="48">
   <si>
     <t>GP</t>
   </si>
@@ -441,9 +441,6 @@
     <t>Práctica de auditoría</t>
   </si>
   <si>
-    <t>54.2</t>
-  </si>
-  <si>
     <t>Solucionar problemas con la reunión del Jueves 7 de mayo</t>
   </si>
   <si>
@@ -456,13 +453,13 @@
     <t>Implementación base 1ª iteración, listar modelos</t>
   </si>
   <si>
-    <t>55.4</t>
-  </si>
-  <si>
     <t>Reunión para repartir tareas</t>
   </si>
   <si>
     <t>Elaboración del tríptico para la presentación</t>
+  </si>
+  <si>
+    <t>Preparación de la presentación</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1818,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.75</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1908,11 +1905,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="94610176"/>
-        <c:axId val="94612480"/>
+        <c:axId val="92246784"/>
+        <c:axId val="92249088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94610176"/>
+        <c:axId val="92246784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,13 +1947,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94612480"/>
+        <c:crossAx val="92249088"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94612480"/>
+        <c:axId val="92249088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2009,7 +2006,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94610176"/>
+        <c:crossAx val="92246784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2032,7 +2029,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14066,7 +14063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -14275,7 +14272,7 @@
       </c>
       <c r="G6" s="114">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>21</v>
+        <v>23.75</v>
       </c>
       <c r="H6" s="116">
         <f>Ene!G36</f>
@@ -14295,7 +14292,7 @@
       </c>
       <c r="L6" s="116">
         <f>May!G36</f>
-        <v>5.75</v>
+        <v>8.5</v>
       </c>
       <c r="M6" s="116">
         <f>Jun!G36</f>
@@ -17351,7 +17348,7 @@
   <dimension ref="A1:BC42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AR3" sqref="AR3"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -20146,13 +20143,14 @@
   <dimension ref="A1:BB43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="3" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" customWidth="1"/>
+    <col min="1" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
     <col min="7" max="7" width="5.140625" customWidth="1"/>
@@ -20430,14 +20428,14 @@
       <c r="C4" s="23">
         <v>2</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>41</v>
+      <c r="D4" s="23">
+        <v>54</v>
       </c>
       <c r="E4" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" ref="G4:G36" si="1">SUM(H4:AK4)</f>
@@ -20501,14 +20499,14 @@
       <c r="C5" s="23">
         <v>2</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>41</v>
+      <c r="D5" s="23">
+        <v>54</v>
       </c>
       <c r="E5" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" si="1"/>
@@ -22960,14 +22958,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="3" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
     <col min="7" max="7" width="5.140625" customWidth="1"/>
@@ -23185,7 +23183,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="15">
         <f t="shared" ref="G3:G36" si="0">SUM(H3:AL3)</f>
@@ -23257,7 +23255,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="0"/>
@@ -23322,18 +23320,18 @@
       <c r="C5" s="23">
         <v>2</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>46</v>
+      <c r="D5" s="23">
+        <v>55</v>
       </c>
       <c r="E5" s="24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -23344,7 +23342,7 @@
       <c r="N5" s="23"/>
       <c r="O5" s="23"/>
       <c r="P5" s="19">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="19"/>
       <c r="R5" s="23"/>
@@ -23398,10 +23396,10 @@
         <v>53</v>
       </c>
       <c r="E6" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G6" s="15">
         <f t="shared" si="0"/>
@@ -23470,10 +23468,10 @@
         <v>58</v>
       </c>
       <c r="E7" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="15">
         <f t="shared" si="0"/>
@@ -23542,10 +23540,10 @@
         <v>58</v>
       </c>
       <c r="E8" s="24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="15">
         <f t="shared" si="0"/>
@@ -23604,14 +23602,24 @@
     </row>
     <row r="9" spans="1:55" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
+      <c r="B9" s="21">
+        <v>84</v>
+      </c>
+      <c r="C9" s="23">
+        <v>2</v>
+      </c>
+      <c r="D9" s="23">
+        <v>58</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>47</v>
+      </c>
       <c r="G9" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -23629,7 +23637,9 @@
       <c r="U9" s="23"/>
       <c r="V9" s="23"/>
       <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
+      <c r="X9" s="19">
+        <v>1</v>
+      </c>
       <c r="Y9" s="23"/>
       <c r="Z9" s="23"/>
       <c r="AA9" s="23"/>
@@ -23664,14 +23674,24 @@
     </row>
     <row r="10" spans="1:55" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
+      <c r="B10" s="21">
+        <v>84</v>
+      </c>
+      <c r="C10" s="23">
+        <v>2</v>
+      </c>
+      <c r="D10" s="23">
+        <v>53</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>45</v>
+      </c>
       <c r="G10" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -23690,7 +23710,9 @@
       <c r="V10" s="23"/>
       <c r="W10" s="19"/>
       <c r="X10" s="19"/>
-      <c r="Y10" s="23"/>
+      <c r="Y10" s="23">
+        <v>1</v>
+      </c>
       <c r="Z10" s="23"/>
       <c r="AA10" s="23"/>
       <c r="AB10" s="23"/>
@@ -25233,7 +25255,7 @@
       </c>
       <c r="G36" s="36">
         <f t="shared" si="0"/>
-        <v>5.75</v>
+        <v>8.5</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" ref="H36:AL36" si="1">SUM(H3:H35)</f>
@@ -25269,7 +25291,7 @@
       </c>
       <c r="P36" s="37">
         <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="Q36" s="37">
         <f t="shared" si="1"/>
@@ -25301,11 +25323,11 @@
       </c>
       <c r="X36" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="72">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" s="72">
         <f t="shared" si="1"/>

--- a/team/efforts/Recopilacion_Esfuerzos_Carlos.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Carlos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="570" windowWidth="20730" windowHeight="11760" activeTab="12"/>
+    <workbookView xWindow="270" yWindow="570" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ene" sheetId="1" r:id="rId1"/>
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="49">
   <si>
     <t>GP</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>Preparación de la presentación</t>
+  </si>
+  <si>
+    <t>Elaborar informe pruebas primera iteración</t>
   </si>
 </sst>
 </file>
@@ -1815,10 +1818,10 @@
                   <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1905,11 +1908,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92246784"/>
-        <c:axId val="92249088"/>
+        <c:axId val="75731712"/>
+        <c:axId val="75734016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92246784"/>
+        <c:axId val="75731712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1947,13 +1950,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92249088"/>
+        <c:crossAx val="75734016"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92249088"/>
+        <c:axId val="75734016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2006,7 +2009,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92246784"/>
+        <c:crossAx val="75731712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2029,7 +2032,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14063,7 +14066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -14272,7 +14275,7 @@
       </c>
       <c r="G6" s="114">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>23.75</v>
+        <v>26.75</v>
       </c>
       <c r="H6" s="116">
         <f>Ene!G36</f>
@@ -14288,11 +14291,11 @@
       </c>
       <c r="K6" s="116">
         <f>Abr!G36</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L6" s="116">
         <f>May!G36</f>
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="M6" s="116">
         <f>Jun!G36</f>
@@ -20143,7 +20146,7 @@
   <dimension ref="A1:BB43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -20439,7 +20442,7 @@
       </c>
       <c r="G4" s="15">
         <f t="shared" ref="G4:G36" si="1">SUM(H4:AK4)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
@@ -20452,7 +20455,7 @@
       <c r="P4" s="23"/>
       <c r="Q4" s="23"/>
       <c r="R4" s="19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S4" s="19"/>
       <c r="T4" s="23"/>
@@ -20510,7 +20513,7 @@
       </c>
       <c r="G5" s="15">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -20524,7 +20527,7 @@
       <c r="Q5" s="23"/>
       <c r="R5" s="19"/>
       <c r="S5" s="19">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="T5" s="23"/>
       <c r="U5" s="23"/>
@@ -22379,7 +22382,7 @@
       </c>
       <c r="G36" s="36">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" ref="H36:AK36" si="2">SUM(H3:H35)</f>
@@ -22423,11 +22426,11 @@
       </c>
       <c r="R36" s="37">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S36" s="37">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="T36" s="72">
         <f t="shared" si="2"/>
@@ -22958,8 +22961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -23746,14 +23749,24 @@
     </row>
     <row r="11" spans="1:55" ht="13.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
+      <c r="B11" s="21">
+        <v>84</v>
+      </c>
+      <c r="C11" s="23">
+        <v>2</v>
+      </c>
+      <c r="D11" s="23">
+        <v>56</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>48</v>
+      </c>
       <c r="G11" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
@@ -23777,7 +23790,9 @@
       <c r="AA11" s="23"/>
       <c r="AB11" s="23"/>
       <c r="AC11" s="23"/>
-      <c r="AD11" s="19"/>
+      <c r="AD11" s="19">
+        <v>2</v>
+      </c>
       <c r="AE11" s="19"/>
       <c r="AF11" s="23"/>
       <c r="AG11" s="23"/>
@@ -25255,7 +25270,7 @@
       </c>
       <c r="G36" s="36">
         <f t="shared" si="0"/>
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" ref="H36:AL36" si="1">SUM(H3:H35)</f>
@@ -25347,7 +25362,7 @@
       </c>
       <c r="AD36" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE36" s="37">
         <f t="shared" si="1"/>

--- a/team/efforts/Recopilacion_Esfuerzos_Carlos.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Carlos.xlsx
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="51">
   <si>
     <t>GP</t>
   </si>
@@ -463,6 +463,12 @@
   </si>
   <si>
     <t>Elaborar informe pruebas primera iteración</t>
+  </si>
+  <si>
+    <t>Preparación de la presentación técnica</t>
+  </si>
+  <si>
+    <t>Elaborar informe pruebas segunda iteración</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1827,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1908,11 +1914,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75731712"/>
-        <c:axId val="75734016"/>
+        <c:axId val="93557504"/>
+        <c:axId val="93559808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75731712"/>
+        <c:axId val="93557504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,13 +1956,13 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75734016"/>
+        <c:crossAx val="93559808"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75734016"/>
+        <c:axId val="93559808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2009,7 +2015,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75731712"/>
+        <c:crossAx val="93557504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2032,7 +2038,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14275,7 +14281,7 @@
       </c>
       <c r="G6" s="114">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>26.75</v>
+        <v>31.25</v>
       </c>
       <c r="H6" s="116">
         <f>Ene!G36</f>
@@ -14295,7 +14301,7 @@
       </c>
       <c r="L6" s="116">
         <f>May!G36</f>
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="M6" s="116">
         <f>Jun!G36</f>
@@ -22962,7 +22968,7 @@
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+      <selection activeCell="AK15" sqref="AK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -23821,14 +23827,24 @@
     </row>
     <row r="12" spans="1:55" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
+      <c r="B12" s="21">
+        <v>84</v>
+      </c>
+      <c r="C12" s="23">
+        <v>2</v>
+      </c>
+      <c r="D12" s="23">
+        <v>58</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="G12" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
@@ -23853,7 +23869,9 @@
       <c r="AB12" s="23"/>
       <c r="AC12" s="23"/>
       <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
+      <c r="AE12" s="19">
+        <v>1</v>
+      </c>
       <c r="AF12" s="23"/>
       <c r="AG12" s="23"/>
       <c r="AH12" s="23"/>
@@ -23881,14 +23899,24 @@
     </row>
     <row r="13" spans="1:55" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
+      <c r="B13" s="21">
+        <v>84</v>
+      </c>
+      <c r="C13" s="23">
+        <v>2</v>
+      </c>
+      <c r="D13" s="23">
+        <v>53</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>45</v>
+      </c>
       <c r="G13" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
@@ -23914,7 +23942,9 @@
       <c r="AC13" s="23"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
-      <c r="AF13" s="23"/>
+      <c r="AF13" s="23">
+        <v>1</v>
+      </c>
       <c r="AG13" s="23"/>
       <c r="AH13" s="23"/>
       <c r="AI13" s="23"/>
@@ -23941,14 +23971,24 @@
     </row>
     <row r="14" spans="1:55" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
+      <c r="B14" s="21">
+        <v>84</v>
+      </c>
+      <c r="C14" s="23">
+        <v>2</v>
+      </c>
+      <c r="D14" s="23">
+        <v>56</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>50</v>
+      </c>
       <c r="G14" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
@@ -23978,7 +24018,9 @@
       <c r="AG14" s="23"/>
       <c r="AH14" s="23"/>
       <c r="AI14" s="23"/>
-      <c r="AJ14" s="23"/>
+      <c r="AJ14" s="23">
+        <v>2.5</v>
+      </c>
       <c r="AK14" s="19"/>
       <c r="AL14" s="19"/>
       <c r="AM14" s="1"/>
@@ -25270,7 +25312,7 @@
       </c>
       <c r="G36" s="36">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" ref="H36:AL36" si="1">SUM(H3:H35)</f>
@@ -25366,11 +25408,11 @@
       </c>
       <c r="AE36" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF36" s="72">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG36" s="72">
         <f t="shared" si="1"/>
@@ -25386,7 +25428,7 @@
       </c>
       <c r="AJ36" s="72">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AK36" s="37">
         <f t="shared" si="1"/>
